--- a/data_cal/v4Plus/adi_v3_1ADC_cal_ges_train.xlsx
+++ b/data_cal/v4Plus/adi_v3_1ADC_cal_ges_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F211"/>
+  <dimension ref="A1:F316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,16 +460,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>21.10000000000002</v>
+        <v>-3.669999999999959</v>
       </c>
       <c r="D2" t="n">
-        <v>60.41000000000003</v>
+        <v>2.120000000000005</v>
       </c>
       <c r="E2" t="n">
-        <v>59.75</v>
+        <v>5.909999999999968</v>
       </c>
       <c r="F2" t="n">
-        <v>66.77000000000004</v>
+        <v>5.560000000000002</v>
       </c>
     </row>
     <row r="3">
@@ -480,16 +480,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>59.94</v>
+        <v>43.94</v>
       </c>
       <c r="D3" t="n">
-        <v>145.89</v>
+        <v>43.60000000000002</v>
       </c>
       <c r="E3" t="n">
-        <v>157.68</v>
+        <v>30.58999999999997</v>
       </c>
       <c r="F3" t="n">
-        <v>61.15000000000003</v>
+        <v>-24.38</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>6.800000000000011</v>
+        <v>4.210000000000036</v>
       </c>
       <c r="D4" t="n">
-        <v>38.14999999999998</v>
+        <v>1.230000000000018</v>
       </c>
       <c r="E4" t="n">
-        <v>38.80000000000001</v>
+        <v>5.789999999999964</v>
       </c>
       <c r="F4" t="n">
-        <v>10.23000000000002</v>
+        <v>-7.29000000000002</v>
       </c>
     </row>
     <row r="5">
@@ -520,16 +520,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>62.15000000000003</v>
+        <v>33.18000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>102.27</v>
+        <v>13.78000000000003</v>
       </c>
       <c r="E5" t="n">
-        <v>52.65000000000003</v>
+        <v>-4.770000000000039</v>
       </c>
       <c r="F5" t="n">
-        <v>70.64000000000004</v>
+        <v>-38.13999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -540,16 +540,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>4.990000000000009</v>
+        <v>6.920000000000016</v>
       </c>
       <c r="D6" t="n">
-        <v>34.79000000000002</v>
+        <v>-1.029999999999973</v>
       </c>
       <c r="E6" t="n">
-        <v>7.710000000000036</v>
+        <v>-0.8100000000000023</v>
       </c>
       <c r="F6" t="n">
-        <v>15.75</v>
+        <v>-11.70999999999998</v>
       </c>
     </row>
     <row r="7">
@@ -560,16 +560,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>8.449999999999989</v>
+        <v>-2.20999999999998</v>
       </c>
       <c r="D7" t="n">
-        <v>38.57999999999998</v>
+        <v>-4.329999999999984</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>-9.920000000000016</v>
       </c>
       <c r="F7" t="n">
-        <v>27.64000000000004</v>
+        <v>-46.13</v>
       </c>
     </row>
     <row r="8">
@@ -580,16 +580,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>-10.52999999999997</v>
+        <v>-3.95999999999998</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1100000000000136</v>
+        <v>-2.029999999999973</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.06</v>
+        <v>-3.180000000000007</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.439999999999998</v>
+        <v>-44.70999999999998</v>
       </c>
     </row>
     <row r="9">
@@ -600,16 +600,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>43.19</v>
+        <v>-6.550000000000011</v>
       </c>
       <c r="D9" t="n">
-        <v>91.10000000000002</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>88.50999999999999</v>
+        <v>-10.15000000000003</v>
       </c>
       <c r="F9" t="n">
-        <v>94.79000000000002</v>
+        <v>-9.590000000000032</v>
       </c>
     </row>
     <row r="10">
@@ -620,16 +620,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>52.31</v>
+        <v>36.97000000000003</v>
       </c>
       <c r="D10" t="n">
-        <v>136.55</v>
+        <v>35.65000000000003</v>
       </c>
       <c r="E10" t="n">
-        <v>121.65</v>
+        <v>21.40999999999997</v>
       </c>
       <c r="F10" t="n">
-        <v>46.34000000000003</v>
+        <v>-36.23000000000002</v>
       </c>
     </row>
     <row r="11">
@@ -640,16 +640,16 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>4.650000000000034</v>
+        <v>-0.1599999999999682</v>
       </c>
       <c r="D11" t="n">
-        <v>35.22000000000003</v>
+        <v>-0.5999999999999659</v>
       </c>
       <c r="E11" t="n">
-        <v>25.62</v>
+        <v>-2.230000000000018</v>
       </c>
       <c r="F11" t="n">
-        <v>4.760000000000048</v>
+        <v>-12.36000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -660,16 +660,16 @@
         <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>56.52000000000004</v>
+        <v>43.25</v>
       </c>
       <c r="D12" t="n">
-        <v>77.82999999999998</v>
+        <v>13.04000000000002</v>
       </c>
       <c r="E12" t="n">
-        <v>36.18000000000001</v>
+        <v>-9.460000000000036</v>
       </c>
       <c r="F12" t="n">
-        <v>50.5</v>
+        <v>-43.42000000000002</v>
       </c>
     </row>
     <row r="13">
@@ -680,16 +680,16 @@
         <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>10.98000000000002</v>
+        <v>7.370000000000005</v>
       </c>
       <c r="D13" t="n">
-        <v>31.06</v>
+        <v>-5.069999999999993</v>
       </c>
       <c r="E13" t="n">
-        <v>8.720000000000027</v>
+        <v>-5.350000000000023</v>
       </c>
       <c r="F13" t="n">
-        <v>14.82000000000005</v>
+        <v>-20.25999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -700,16 +700,16 @@
         <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>12.66000000000003</v>
+        <v>-0.5299999999999727</v>
       </c>
       <c r="D14" t="n">
-        <v>34.01999999999998</v>
+        <v>-6.180000000000007</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.449999999999989</v>
+        <v>-11.51000000000005</v>
       </c>
       <c r="F14" t="n">
-        <v>23.83000000000004</v>
+        <v>-47.54000000000002</v>
       </c>
     </row>
     <row r="15">
@@ -720,16 +720,16 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>-3.879999999999995</v>
+        <v>-7.909999999999968</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6399999999999864</v>
+        <v>-10.48000000000002</v>
       </c>
       <c r="E15" t="n">
-        <v>-12.20999999999998</v>
+        <v>-10.83000000000004</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.649999999999977</v>
+        <v>-49.99000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -740,16 +740,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>38.30000000000001</v>
+        <v>-6.409999999999968</v>
       </c>
       <c r="D16" t="n">
-        <v>73.75999999999999</v>
+        <v>3.199999999999989</v>
       </c>
       <c r="E16" t="n">
-        <v>73.72000000000003</v>
+        <v>-15.06</v>
       </c>
       <c r="F16" t="n">
-        <v>71.61000000000001</v>
+        <v>-18.51999999999998</v>
       </c>
     </row>
     <row r="17">
@@ -760,16 +760,16 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>48.56999999999999</v>
+        <v>31.00999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>131.74</v>
+        <v>30.37</v>
       </c>
       <c r="E17" t="n">
-        <v>116.33</v>
+        <v>14.03999999999996</v>
       </c>
       <c r="F17" t="n">
-        <v>58.09000000000003</v>
+        <v>-42.42000000000002</v>
       </c>
     </row>
     <row r="18">
@@ -780,16 +780,16 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>-16.69</v>
+        <v>-5.039999999999964</v>
       </c>
       <c r="D18" t="n">
-        <v>9.009999999999991</v>
+        <v>-4.519999999999982</v>
       </c>
       <c r="E18" t="n">
-        <v>2.389999999999986</v>
+        <v>-7.270000000000039</v>
       </c>
       <c r="F18" t="n">
-        <v>-4.369999999999948</v>
+        <v>-22.29000000000002</v>
       </c>
     </row>
     <row r="19">
@@ -800,16 +800,16 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>57.86000000000001</v>
+        <v>35.28000000000003</v>
       </c>
       <c r="D19" t="n">
-        <v>47.83999999999997</v>
+        <v>9.079999999999984</v>
       </c>
       <c r="E19" t="n">
-        <v>3.150000000000034</v>
+        <v>-11.97000000000003</v>
       </c>
       <c r="F19" t="n">
-        <v>9.950000000000045</v>
+        <v>-50.55000000000001</v>
       </c>
     </row>
     <row r="20">
@@ -820,16 +820,16 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>-3.300000000000011</v>
+        <v>0.3500000000000227</v>
       </c>
       <c r="D20" t="n">
-        <v>2.139999999999986</v>
+        <v>-9.579999999999984</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.93000000000001</v>
+        <v>-9.170000000000016</v>
       </c>
       <c r="F20" t="n">
-        <v>-8.409999999999968</v>
+        <v>-32.81999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -840,16 +840,16 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>-5.45999999999998</v>
+        <v>-5.539999999999964</v>
       </c>
       <c r="D21" t="n">
-        <v>4.939999999999998</v>
+        <v>-9.939999999999998</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.63</v>
+        <v>-12.31</v>
       </c>
       <c r="F21" t="n">
-        <v>7.650000000000034</v>
+        <v>-53.38</v>
       </c>
     </row>
     <row r="22">
@@ -860,16 +860,16 @@
         <v>6</v>
       </c>
       <c r="C22" t="n">
-        <v>-19.68000000000001</v>
+        <v>-15.26999999999998</v>
       </c>
       <c r="D22" t="n">
-        <v>-19.62</v>
+        <v>-14.34999999999997</v>
       </c>
       <c r="E22" t="n">
-        <v>-33.20999999999998</v>
+        <v>-9.980000000000018</v>
       </c>
       <c r="F22" t="n">
-        <v>-22.03999999999996</v>
+        <v>-57.45999999999998</v>
       </c>
     </row>
     <row r="23">
@@ -880,16 +880,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8100000000000023</v>
+        <v>-16.50999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>23.57999999999998</v>
+        <v>3.069999999999993</v>
       </c>
       <c r="E23" t="n">
-        <v>15.06</v>
+        <v>-22.15000000000003</v>
       </c>
       <c r="F23" t="n">
-        <v>32.95000000000005</v>
+        <v>-27.84000000000003</v>
       </c>
     </row>
     <row r="24">
@@ -900,16 +900,16 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>9.579999999999984</v>
+        <v>24.61000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>77.03000000000003</v>
+        <v>24.56999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>61.37</v>
+        <v>11</v>
       </c>
       <c r="F24" t="n">
-        <v>26.14000000000004</v>
+        <v>-46.75999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -920,16 +920,16 @@
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>-10.20999999999998</v>
+        <v>-10.52999999999997</v>
       </c>
       <c r="D25" t="n">
-        <v>10.10000000000002</v>
+        <v>-8.730000000000018</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.4200000000000159</v>
+        <v>-10.26000000000005</v>
       </c>
       <c r="F25" t="n">
-        <v>-6.269999999999982</v>
+        <v>-36.44999999999999</v>
       </c>
     </row>
     <row r="26">
@@ -940,16 +940,16 @@
         <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>36.56</v>
+        <v>16.71000000000004</v>
       </c>
       <c r="D26" t="n">
-        <v>44.88999999999999</v>
+        <v>-0.6599999999999682</v>
       </c>
       <c r="E26" t="n">
-        <v>-16.83999999999997</v>
+        <v>-16.73000000000002</v>
       </c>
       <c r="F26" t="n">
-        <v>-6.919999999999959</v>
+        <v>-61.22000000000003</v>
       </c>
     </row>
     <row r="27">
@@ -960,16 +960,16 @@
         <v>4</v>
       </c>
       <c r="C27" t="n">
-        <v>-19.61000000000001</v>
+        <v>-6.620000000000005</v>
       </c>
       <c r="D27" t="n">
-        <v>-14.12</v>
+        <v>-12.57999999999998</v>
       </c>
       <c r="E27" t="n">
-        <v>-37.71999999999997</v>
+        <v>-11</v>
       </c>
       <c r="F27" t="n">
-        <v>-25.72999999999996</v>
+        <v>-37.63</v>
       </c>
     </row>
     <row r="28">
@@ -980,16 +980,16 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>-21.31999999999999</v>
+        <v>-15.81999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>-5.279999999999973</v>
+        <v>-14.34999999999997</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.95999999999998</v>
+        <v>-12.99000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>-8.539999999999964</v>
+        <v>-59.35000000000002</v>
       </c>
     </row>
     <row r="29">
@@ -1000,16 +1000,16 @@
         <v>6</v>
       </c>
       <c r="C29" t="n">
-        <v>-38.80000000000001</v>
+        <v>-17.81</v>
       </c>
       <c r="D29" t="n">
-        <v>-32.56999999999999</v>
+        <v>-17.34999999999997</v>
       </c>
       <c r="E29" t="n">
-        <v>-48.20999999999998</v>
+        <v>-9.980000000000018</v>
       </c>
       <c r="F29" t="n">
-        <v>-35.63999999999999</v>
+        <v>-58.88</v>
       </c>
     </row>
     <row r="30">
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>32.93000000000001</v>
+        <v>-20.32999999999998</v>
       </c>
       <c r="D30" t="n">
-        <v>86.23000000000002</v>
+        <v>-4.269999999999982</v>
       </c>
       <c r="E30" t="n">
-        <v>65.19999999999999</v>
+        <v>-24.89000000000004</v>
       </c>
       <c r="F30" t="n">
-        <v>76.19</v>
+        <v>-40.47000000000003</v>
       </c>
     </row>
     <row r="31">
@@ -1040,16 +1040,16 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>31.98000000000002</v>
+        <v>19.16000000000003</v>
       </c>
       <c r="D31" t="n">
-        <v>98.18000000000001</v>
+        <v>20.28000000000003</v>
       </c>
       <c r="E31" t="n">
-        <v>89.77000000000004</v>
+        <v>7.819999999999993</v>
       </c>
       <c r="F31" t="n">
-        <v>42.33000000000004</v>
+        <v>-55.16000000000003</v>
       </c>
     </row>
     <row r="32">
@@ -1060,16 +1060,16 @@
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>-3.46999999999997</v>
+        <v>-11.93000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>14.56999999999999</v>
+        <v>-10.65999999999997</v>
       </c>
       <c r="E32" t="n">
-        <v>8.960000000000036</v>
+        <v>-10.03000000000003</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.099999999999966</v>
+        <v>-34.09000000000003</v>
       </c>
     </row>
     <row r="33">
@@ -1080,16 +1080,16 @@
         <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>41.13</v>
+        <v>-14.91999999999996</v>
       </c>
       <c r="D33" t="n">
-        <v>15.36000000000001</v>
+        <v>-21.26999999999998</v>
       </c>
       <c r="E33" t="n">
-        <v>-9.819999999999993</v>
+        <v>-30.26000000000005</v>
       </c>
       <c r="F33" t="n">
-        <v>-8.479999999999961</v>
+        <v>-82.84000000000003</v>
       </c>
     </row>
     <row r="34">
@@ -1100,16 +1100,16 @@
         <v>4</v>
       </c>
       <c r="C34" t="n">
-        <v>-22.94999999999999</v>
+        <v>-6.909999999999968</v>
       </c>
       <c r="D34" t="n">
-        <v>-22.30000000000001</v>
+        <v>-11.56</v>
       </c>
       <c r="E34" t="n">
-        <v>-44.15999999999997</v>
+        <v>-11.34000000000003</v>
       </c>
       <c r="F34" t="n">
-        <v>-36.78999999999996</v>
+        <v>-40.75999999999999</v>
       </c>
     </row>
     <row r="35">
@@ -1120,16 +1120,16 @@
         <v>5</v>
       </c>
       <c r="C35" t="n">
-        <v>-21.78999999999996</v>
+        <v>-15.33999999999997</v>
       </c>
       <c r="D35" t="n">
-        <v>-10.06</v>
+        <v>-14.70999999999998</v>
       </c>
       <c r="E35" t="n">
-        <v>-36.68000000000001</v>
+        <v>-12.99000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>-10.02999999999997</v>
+        <v>-59.14999999999998</v>
       </c>
     </row>
     <row r="36">
@@ -1140,16 +1140,16 @@
         <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>-47.06</v>
+        <v>-15.40999999999997</v>
       </c>
       <c r="D36" t="n">
-        <v>-46.25</v>
+        <v>-16.52999999999997</v>
       </c>
       <c r="E36" t="n">
-        <v>-62.96999999999997</v>
+        <v>-10.15000000000003</v>
       </c>
       <c r="F36" t="n">
-        <v>-49.25</v>
+        <v>-65.94999999999999</v>
       </c>
     </row>
     <row r="37">
@@ -1160,16 +1160,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>13.72000000000003</v>
+        <v>-21.06999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>44.00999999999999</v>
+        <v>-2.46999999999997</v>
       </c>
       <c r="E37" t="n">
-        <v>39.94</v>
+        <v>-23.28000000000003</v>
       </c>
       <c r="F37" t="n">
-        <v>44.73000000000002</v>
+        <v>-40.47000000000003</v>
       </c>
     </row>
     <row r="38">
@@ -1180,16 +1180,16 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>-5.870000000000005</v>
+        <v>11.27000000000004</v>
       </c>
       <c r="D38" t="n">
-        <v>56.95999999999998</v>
+        <v>14.85000000000002</v>
       </c>
       <c r="E38" t="n">
-        <v>36.87</v>
+        <v>6.70999999999998</v>
       </c>
       <c r="F38" t="n">
-        <v>2.110000000000014</v>
+        <v>-59.28000000000003</v>
       </c>
     </row>
     <row r="39">
@@ -1200,16 +1200,16 @@
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>-5.620000000000005</v>
+        <v>-34.5</v>
       </c>
       <c r="D39" t="n">
-        <v>10.01999999999998</v>
+        <v>-27.81</v>
       </c>
       <c r="E39" t="n">
-        <v>-2.819999999999993</v>
+        <v>-24.30000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>-10.53999999999996</v>
+        <v>-57.94</v>
       </c>
     </row>
     <row r="40">
@@ -1220,16 +1220,16 @@
         <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>40.25</v>
+        <v>-2.5</v>
       </c>
       <c r="D40" t="n">
-        <v>29.63</v>
+        <v>-11.62</v>
       </c>
       <c r="E40" t="n">
-        <v>-8.370000000000005</v>
+        <v>-26.01000000000005</v>
       </c>
       <c r="F40" t="n">
-        <v>-12.57999999999998</v>
+        <v>-74.95999999999998</v>
       </c>
     </row>
     <row r="41">
@@ -1240,16 +1240,16 @@
         <v>4</v>
       </c>
       <c r="C41" t="n">
-        <v>-14.87</v>
+        <v>-13.53999999999996</v>
       </c>
       <c r="D41" t="n">
-        <v>-11.92000000000002</v>
+        <v>-14.24000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>-31.82999999999998</v>
+        <v>-14.84000000000003</v>
       </c>
       <c r="F41" t="n">
-        <v>-26.56999999999999</v>
+        <v>-49.85000000000002</v>
       </c>
     </row>
     <row r="42">
@@ -1260,16 +1260,16 @@
         <v>5</v>
       </c>
       <c r="C42" t="n">
-        <v>-9.71999999999997</v>
+        <v>-21</v>
       </c>
       <c r="D42" t="n">
-        <v>7.240000000000009</v>
+        <v>-17.81</v>
       </c>
       <c r="E42" t="n">
-        <v>-27.61000000000001</v>
+        <v>-15.68000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>-9.060000000000002</v>
+        <v>-64.38</v>
       </c>
     </row>
     <row r="43">
@@ -1280,16 +1280,16 @@
         <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>-35.44</v>
+        <v>-21.81</v>
       </c>
       <c r="D43" t="n">
-        <v>-36.89999999999998</v>
+        <v>-18.50999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>-45.96999999999997</v>
+        <v>-11.97000000000003</v>
       </c>
       <c r="F43" t="n">
-        <v>-39.10999999999996</v>
+        <v>-68.09000000000003</v>
       </c>
     </row>
     <row r="44">
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>17.12</v>
+        <v>-42.50999999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>55.01999999999998</v>
+        <v>-23.55000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>39.59000000000003</v>
+        <v>-40.71000000000004</v>
       </c>
       <c r="F44" t="n">
-        <v>48.45000000000005</v>
+        <v>-64.97000000000003</v>
       </c>
     </row>
     <row r="45">
@@ -1320,16 +1320,16 @@
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>-6.529999999999973</v>
+        <v>-11.93000000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>54.45999999999998</v>
+        <v>-4.759999999999991</v>
       </c>
       <c r="E45" t="n">
-        <v>39.41000000000003</v>
+        <v>-18.11000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>1.300000000000011</v>
+        <v>-78.81</v>
       </c>
     </row>
     <row r="46">
@@ -1340,16 +1340,16 @@
         <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>-24.09999999999997</v>
+        <v>-19.11000000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>-5.71999999999997</v>
+        <v>-16.75999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>-14.21999999999997</v>
+        <v>-13.66000000000003</v>
       </c>
       <c r="F46" t="n">
-        <v>-24.64999999999998</v>
+        <v>-40.69</v>
       </c>
     </row>
     <row r="47">
@@ -1360,16 +1360,16 @@
         <v>3</v>
       </c>
       <c r="C47" t="n">
-        <v>33.97000000000003</v>
+        <v>8.28000000000003</v>
       </c>
       <c r="D47" t="n">
-        <v>16.55000000000001</v>
+        <v>-1.96999999999997</v>
       </c>
       <c r="E47" t="n">
-        <v>-13.13999999999999</v>
+        <v>-21.45000000000005</v>
       </c>
       <c r="F47" t="n">
-        <v>-10.53999999999996</v>
+        <v>-65.69</v>
       </c>
     </row>
     <row r="48">
@@ -1380,16 +1380,16 @@
         <v>4</v>
       </c>
       <c r="C48" t="n">
-        <v>-28.13999999999999</v>
+        <v>-10.74000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>-26.94999999999999</v>
+        <v>-11.44</v>
       </c>
       <c r="E48" t="n">
-        <v>-45.53999999999996</v>
+        <v>-12.36000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>-37.69999999999999</v>
+        <v>-44.85000000000002</v>
       </c>
     </row>
     <row r="49">
@@ -1400,16 +1400,16 @@
         <v>5</v>
       </c>
       <c r="C49" t="n">
-        <v>-22.63999999999999</v>
+        <v>-15.55000000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>-15.58999999999997</v>
+        <v>-17.05000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>-42.13999999999999</v>
+        <v>-13.61000000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>-21.42999999999995</v>
+        <v>-60.75</v>
       </c>
     </row>
     <row r="50">
@@ -1420,16 +1420,16 @@
         <v>6</v>
       </c>
       <c r="C50" t="n">
-        <v>-42.25</v>
+        <v>-20.25999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>-43.45999999999998</v>
+        <v>-17.23000000000002</v>
       </c>
       <c r="E50" t="n">
-        <v>-55.07999999999998</v>
+        <v>-12.14000000000004</v>
       </c>
       <c r="F50" t="n">
-        <v>-44.34999999999997</v>
+        <v>-68.16000000000003</v>
       </c>
     </row>
     <row r="51">
@@ -1440,16 +1440,16 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>7.75</v>
+        <v>-43.72999999999996</v>
       </c>
       <c r="D51" t="n">
-        <v>42.68000000000001</v>
+        <v>-21.73000000000002</v>
       </c>
       <c r="E51" t="n">
-        <v>29.23000000000002</v>
+        <v>-38.07000000000005</v>
       </c>
       <c r="F51" t="n">
-        <v>42.65000000000003</v>
+        <v>-61.07999999999998</v>
       </c>
     </row>
     <row r="52">
@@ -1460,16 +1460,16 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>-2.129999999999995</v>
+        <v>-17.32999999999998</v>
       </c>
       <c r="D52" t="n">
-        <v>54</v>
+        <v>-13.11000000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>34.69999999999999</v>
+        <v>-22.69</v>
       </c>
       <c r="F52" t="n">
-        <v>8</v>
+        <v>-86.07999999999998</v>
       </c>
     </row>
     <row r="53">
@@ -1480,16 +1480,16 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>-24.40999999999997</v>
+        <v>-20.52999999999997</v>
       </c>
       <c r="D53" t="n">
-        <v>-10.77999999999997</v>
+        <v>-17.99000000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>-20.42000000000002</v>
+        <v>-15.40000000000003</v>
       </c>
       <c r="F53" t="n">
-        <v>-26.02999999999997</v>
+        <v>-43.13999999999999</v>
       </c>
     </row>
     <row r="54">
@@ -1500,16 +1500,16 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>24.40000000000003</v>
+        <v>2.270000000000039</v>
       </c>
       <c r="D54" t="n">
-        <v>16.47000000000003</v>
+        <v>-10.89999999999998</v>
       </c>
       <c r="E54" t="n">
-        <v>-13.5</v>
+        <v>-25.95000000000005</v>
       </c>
       <c r="F54" t="n">
-        <v>-6.789999999999964</v>
+        <v>-72.25</v>
       </c>
     </row>
     <row r="55">
@@ -1520,16 +1520,16 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>-25.32999999999998</v>
+        <v>-12.56</v>
       </c>
       <c r="D55" t="n">
-        <v>-21.54000000000002</v>
+        <v>-15.40999999999997</v>
       </c>
       <c r="E55" t="n">
-        <v>-39.13999999999999</v>
+        <v>-17.01000000000005</v>
       </c>
       <c r="F55" t="n">
-        <v>-32.40999999999997</v>
+        <v>-47.32999999999998</v>
       </c>
     </row>
     <row r="56">
@@ -1540,16 +1540,16 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>-17.08999999999997</v>
+        <v>-20.80000000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>-3.670000000000016</v>
+        <v>-18.15999999999997</v>
       </c>
       <c r="E56" t="n">
-        <v>-36.75</v>
+        <v>-18.99000000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>-27.88</v>
+        <v>-63.60000000000002</v>
       </c>
     </row>
     <row r="57">
@@ -1560,16 +1560,16 @@
         <v>6</v>
       </c>
       <c r="C57" t="n">
-        <v>-39.44999999999999</v>
+        <v>-23.28999999999996</v>
       </c>
       <c r="D57" t="n">
-        <v>-37.66000000000003</v>
+        <v>-19.31999999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>-47.08999999999997</v>
+        <v>-16.40000000000003</v>
       </c>
       <c r="F57" t="n">
-        <v>-42.02999999999997</v>
+        <v>-69.82999999999998</v>
       </c>
     </row>
     <row r="58">
@@ -1580,16 +1580,16 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>-15.50999999999999</v>
+        <v>-39.78999999999996</v>
       </c>
       <c r="D58" t="n">
-        <v>5.240000000000009</v>
+        <v>-9.399999999999977</v>
       </c>
       <c r="E58" t="n">
-        <v>-4.45999999999998</v>
+        <v>-37.97000000000003</v>
       </c>
       <c r="F58" t="n">
-        <v>18.71000000000004</v>
+        <v>-59.48000000000002</v>
       </c>
     </row>
     <row r="59">
@@ -1600,16 +1600,16 @@
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>-12.46999999999997</v>
+        <v>-2.649999999999977</v>
       </c>
       <c r="D59" t="n">
-        <v>51.63</v>
+        <v>1.230000000000018</v>
       </c>
       <c r="E59" t="n">
-        <v>18.77000000000004</v>
+        <v>-11.74000000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.04999999999995453</v>
+        <v>-72.12</v>
       </c>
     </row>
     <row r="60">
@@ -1620,16 +1620,16 @@
         <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>-35</v>
+        <v>-54.36000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>-20.64999999999998</v>
+        <v>-45.13</v>
       </c>
       <c r="E60" t="n">
-        <v>-35.57999999999998</v>
+        <v>-47.89000000000004</v>
       </c>
       <c r="F60" t="n">
-        <v>-35.17999999999995</v>
+        <v>-85.24000000000001</v>
       </c>
     </row>
     <row r="61">
@@ -1640,16 +1640,16 @@
         <v>3</v>
       </c>
       <c r="C61" t="n">
-        <v>27.37</v>
+        <v>-32.38999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>15.36000000000001</v>
+        <v>-39</v>
       </c>
       <c r="E61" t="n">
-        <v>-17.69</v>
+        <v>-52.51000000000005</v>
       </c>
       <c r="F61" t="n">
-        <v>-10.85999999999996</v>
+        <v>-102.5</v>
       </c>
     </row>
     <row r="62">
@@ -1660,16 +1660,16 @@
         <v>4</v>
       </c>
       <c r="C62" t="n">
-        <v>-6.529999999999973</v>
+        <v>-32.00999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>-7.759999999999991</v>
+        <v>-28.13999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>-29.28999999999996</v>
+        <v>-31.66000000000003</v>
       </c>
       <c r="F62" t="n">
-        <v>-18.97999999999996</v>
+        <v>-62.74000000000001</v>
       </c>
     </row>
     <row r="63">
@@ -1680,16 +1680,16 @@
         <v>5</v>
       </c>
       <c r="C63" t="n">
-        <v>-1.70999999999998</v>
+        <v>-37.46999999999997</v>
       </c>
       <c r="D63" t="n">
-        <v>11.88999999999999</v>
+        <v>-31.44</v>
       </c>
       <c r="E63" t="n">
-        <v>-21.59999999999997</v>
+        <v>-31.15000000000003</v>
       </c>
       <c r="F63" t="n">
-        <v>-4.239999999999952</v>
+        <v>-80.04000000000002</v>
       </c>
     </row>
     <row r="64">
@@ -1700,16 +1700,16 @@
         <v>6</v>
       </c>
       <c r="C64" t="n">
-        <v>-15.81999999999999</v>
+        <v>-37.90999999999997</v>
       </c>
       <c r="D64" t="n">
-        <v>-19.89999999999998</v>
+        <v>-29.90999999999997</v>
       </c>
       <c r="E64" t="n">
-        <v>-35.96999999999997</v>
+        <v>-23.93000000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>-24.16999999999996</v>
+        <v>-85.78000000000003</v>
       </c>
     </row>
     <row r="65">
@@ -1720,16 +1720,16 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>4.129999999999995</v>
+        <v>-52.89999999999998</v>
       </c>
       <c r="D65" t="n">
-        <v>31.31</v>
+        <v>-27.42000000000002</v>
       </c>
       <c r="E65" t="n">
-        <v>28.30000000000001</v>
+        <v>-46.22000000000003</v>
       </c>
       <c r="F65" t="n">
-        <v>13.97000000000003</v>
+        <v>-80.82999999999998</v>
       </c>
     </row>
     <row r="66">
@@ -1740,16 +1740,16 @@
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>28.02000000000004</v>
+        <v>-24.41999999999996</v>
       </c>
       <c r="D66" t="n">
-        <v>92.88</v>
+        <v>-14.40999999999997</v>
       </c>
       <c r="E66" t="n">
-        <v>68.11000000000001</v>
+        <v>-25.85000000000002</v>
       </c>
       <c r="F66" t="n">
-        <v>23.83000000000004</v>
+        <v>-92.01999999999998</v>
       </c>
     </row>
     <row r="67">
@@ -1760,16 +1760,16 @@
         <v>2</v>
       </c>
       <c r="C67" t="n">
-        <v>-16.38</v>
+        <v>-53.41999999999996</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8600000000000136</v>
+        <v>-49.93000000000001</v>
       </c>
       <c r="E67" t="n">
-        <v>-9.389999999999986</v>
+        <v>-45.54000000000002</v>
       </c>
       <c r="F67" t="n">
-        <v>-19.52999999999997</v>
+        <v>-80.94999999999999</v>
       </c>
     </row>
     <row r="68">
@@ -1780,16 +1780,16 @@
         <v>3</v>
       </c>
       <c r="C68" t="n">
-        <v>43.49000000000001</v>
+        <v>-23.34999999999997</v>
       </c>
       <c r="D68" t="n">
-        <v>20.64999999999998</v>
+        <v>-35.38999999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>-14.78999999999996</v>
+        <v>-43.55000000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>-13.27999999999997</v>
+        <v>-96.26999999999998</v>
       </c>
     </row>
     <row r="69">
@@ -1800,16 +1800,16 @@
         <v>4</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9800000000000182</v>
+        <v>-27.06</v>
       </c>
       <c r="D69" t="n">
-        <v>-3.379999999999995</v>
+        <v>-27.02999999999997</v>
       </c>
       <c r="E69" t="n">
-        <v>-25.09999999999997</v>
+        <v>-28.80000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>-10.66999999999996</v>
+        <v>-64.44999999999999</v>
       </c>
     </row>
     <row r="70">
@@ -1820,16 +1820,16 @@
         <v>5</v>
       </c>
       <c r="C70" t="n">
-        <v>-4.129999999999995</v>
+        <v>-35.70999999999998</v>
       </c>
       <c r="D70" t="n">
-        <v>13.06999999999999</v>
+        <v>-23.71999999999997</v>
       </c>
       <c r="E70" t="n">
-        <v>-24.89999999999998</v>
+        <v>-31.30000000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>5.510000000000048</v>
+        <v>-82.29000000000002</v>
       </c>
     </row>
     <row r="71">
@@ -1840,16 +1840,16 @@
         <v>6</v>
       </c>
       <c r="C71" t="n">
-        <v>-16.30000000000001</v>
+        <v>-34.94999999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>-21.75</v>
+        <v>-23.71999999999997</v>
       </c>
       <c r="E71" t="n">
-        <v>-33.81</v>
+        <v>-27.59000000000003</v>
       </c>
       <c r="F71" t="n">
-        <v>-20.88</v>
+        <v>-86.07999999999998</v>
       </c>
     </row>
     <row r="72">
@@ -1860,16 +1860,16 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>14.88</v>
+        <v>-33.61000000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>42.94999999999999</v>
+        <v>1.550000000000011</v>
       </c>
       <c r="E72" t="n">
-        <v>29.31</v>
+        <v>-34.38</v>
       </c>
       <c r="F72" t="n">
-        <v>38.62</v>
+        <v>-45.49000000000001</v>
       </c>
     </row>
     <row r="73">
@@ -1880,16 +1880,16 @@
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>25.23000000000002</v>
+        <v>-26.06999999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>83.17000000000002</v>
+        <v>-21.03999999999996</v>
       </c>
       <c r="E73" t="n">
-        <v>55.99000000000001</v>
+        <v>-24.52000000000004</v>
       </c>
       <c r="F73" t="n">
-        <v>21.18000000000001</v>
+        <v>-91.25999999999999</v>
       </c>
     </row>
     <row r="74">
@@ -1900,16 +1900,16 @@
         <v>2</v>
       </c>
       <c r="C74" t="n">
-        <v>-21.70999999999998</v>
+        <v>-62.02999999999997</v>
       </c>
       <c r="D74" t="n">
-        <v>-8.620000000000005</v>
+        <v>-50.38</v>
       </c>
       <c r="E74" t="n">
-        <v>-24.42000000000002</v>
+        <v>-51.39000000000004</v>
       </c>
       <c r="F74" t="n">
-        <v>-21.19</v>
+        <v>-92.01999999999998</v>
       </c>
     </row>
     <row r="75">
@@ -1920,16 +1920,16 @@
         <v>3</v>
       </c>
       <c r="C75" t="n">
-        <v>34.25999999999999</v>
+        <v>-28.18000000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>20.07999999999998</v>
+        <v>-38.69</v>
       </c>
       <c r="E75" t="n">
-        <v>-24.49000000000001</v>
+        <v>-52.74000000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>-14.53999999999996</v>
+        <v>-107.69</v>
       </c>
     </row>
     <row r="76">
@@ -1940,16 +1940,16 @@
         <v>4</v>
       </c>
       <c r="C76" t="n">
-        <v>-18.65999999999997</v>
+        <v>-64.11000000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>-19.27999999999997</v>
+        <v>-65.21999999999997</v>
       </c>
       <c r="E76" t="n">
-        <v>-39.58999999999997</v>
+        <v>-59.78000000000003</v>
       </c>
       <c r="F76" t="n">
-        <v>-29.23999999999995</v>
+        <v>-107.04</v>
       </c>
     </row>
     <row r="77">
@@ -1960,16 +1960,16 @@
         <v>5</v>
       </c>
       <c r="C77" t="n">
-        <v>-17.32999999999998</v>
+        <v>-78.84999999999997</v>
       </c>
       <c r="D77" t="n">
-        <v>-1.009999999999991</v>
+        <v>-69.06999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>-33.87</v>
+        <v>-71.53000000000003</v>
       </c>
       <c r="F77" t="n">
-        <v>6</v>
+        <v>-129.16</v>
       </c>
     </row>
     <row r="78">
@@ -1980,16 +1980,16 @@
         <v>6</v>
       </c>
       <c r="C78" t="n">
-        <v>-33.22999999999996</v>
+        <v>-97.81</v>
       </c>
       <c r="D78" t="n">
-        <v>-34.89999999999998</v>
+        <v>-82.48000000000002</v>
       </c>
       <c r="E78" t="n">
-        <v>-46.65999999999997</v>
+        <v>-76.08000000000004</v>
       </c>
       <c r="F78" t="n">
-        <v>-31.52999999999997</v>
+        <v>-143.57</v>
       </c>
     </row>
     <row r="79">
@@ -2000,16 +2000,16 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>-7.019999999999982</v>
+        <v>-61.52999999999997</v>
       </c>
       <c r="D79" t="n">
-        <v>4.480000000000018</v>
+        <v>-33.99000000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>-3.420000000000016</v>
+        <v>-50.83000000000004</v>
       </c>
       <c r="F79" t="n">
-        <v>19.07000000000005</v>
+        <v>-88.26999999999998</v>
       </c>
     </row>
     <row r="80">
@@ -2020,16 +2020,16 @@
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>-4.95999999999998</v>
+        <v>-27.45999999999998</v>
       </c>
       <c r="D80" t="n">
-        <v>50.08999999999997</v>
+        <v>-18.68000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>26.54000000000002</v>
+        <v>44.57999999999998</v>
       </c>
       <c r="F80" t="n">
-        <v>4.900000000000034</v>
+        <v>-97.75</v>
       </c>
     </row>
     <row r="81">
@@ -2040,16 +2040,16 @@
         <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>-41.88999999999999</v>
+        <v>-33.66999999999996</v>
       </c>
       <c r="D81" t="n">
-        <v>-27.42000000000002</v>
+        <v>-28.31</v>
       </c>
       <c r="E81" t="n">
-        <v>-40.55000000000001</v>
+        <v>-28.28000000000003</v>
       </c>
       <c r="F81" t="n">
-        <v>-38.71999999999997</v>
+        <v>-67.63999999999999</v>
       </c>
     </row>
     <row r="82">
@@ -2060,16 +2060,16 @@
         <v>3</v>
       </c>
       <c r="C82" t="n">
-        <v>5.590000000000032</v>
+        <v>-12.06999999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>-6.740000000000009</v>
+        <v>-27.81</v>
       </c>
       <c r="E82" t="n">
-        <v>-41.25</v>
+        <v>-42.28000000000003</v>
       </c>
       <c r="F82" t="n">
-        <v>-27.16999999999996</v>
+        <v>-99.04000000000002</v>
       </c>
     </row>
     <row r="83">
@@ -2080,16 +2080,16 @@
         <v>4</v>
       </c>
       <c r="C83" t="n">
-        <v>-27.45999999999998</v>
+        <v>-18.5</v>
       </c>
       <c r="D83" t="n">
-        <v>-31.77999999999997</v>
+        <v>-24.84999999999997</v>
       </c>
       <c r="E83" t="n">
-        <v>-47.15999999999997</v>
+        <v>-25.10000000000002</v>
       </c>
       <c r="F83" t="n">
-        <v>-38.03999999999996</v>
+        <v>-60.81999999999999</v>
       </c>
     </row>
     <row r="84">
@@ -2100,16 +2100,16 @@
         <v>5</v>
       </c>
       <c r="C84" t="n">
-        <v>-33.89999999999998</v>
+        <v>-22.88</v>
       </c>
       <c r="D84" t="n">
-        <v>-22.69999999999999</v>
+        <v>-20.69999999999999</v>
       </c>
       <c r="E84" t="n">
-        <v>-44.09999999999997</v>
+        <v>-22.42000000000002</v>
       </c>
       <c r="F84" t="n">
-        <v>-32</v>
+        <v>-73.25999999999999</v>
       </c>
     </row>
     <row r="85">
@@ -2120,16 +2120,16 @@
         <v>6</v>
       </c>
       <c r="C85" t="n">
-        <v>-41.11000000000001</v>
+        <v>-32.57999999999998</v>
       </c>
       <c r="D85" t="n">
-        <v>-46.74000000000001</v>
+        <v>-25.80000000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>-55.74000000000001</v>
+        <v>-20.63</v>
       </c>
       <c r="F85" t="n">
-        <v>-49.19999999999999</v>
+        <v>-78.00999999999999</v>
       </c>
     </row>
     <row r="86">
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>-19.28999999999996</v>
+        <v>-72.94999999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>-4.259999999999991</v>
+        <v>-36.67000000000002</v>
       </c>
       <c r="E86" t="n">
-        <v>27.96000000000004</v>
+        <v>-58.57000000000005</v>
       </c>
       <c r="F86" t="n">
-        <v>8.210000000000036</v>
+        <v>-90.44999999999999</v>
       </c>
     </row>
     <row r="87">
@@ -2160,16 +2160,16 @@
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.7899999999999636</v>
+        <v>-0.5299999999999727</v>
       </c>
       <c r="D87" t="n">
-        <v>64.19</v>
+        <v>5.639999999999986</v>
       </c>
       <c r="E87" t="n">
-        <v>33.75</v>
+        <v>-6.920000000000016</v>
       </c>
       <c r="F87" t="n">
-        <v>0.02000000000003865</v>
+        <v>-65.30000000000001</v>
       </c>
     </row>
     <row r="88">
@@ -2180,16 +2180,16 @@
         <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>-43.88999999999999</v>
+        <v>-42.01999999999998</v>
       </c>
       <c r="D88" t="n">
-        <v>-28.88</v>
+        <v>-41.09999999999997</v>
       </c>
       <c r="E88" t="n">
-        <v>-38.43000000000001</v>
+        <v>-34.23000000000002</v>
       </c>
       <c r="F88" t="n">
-        <v>-41.07999999999998</v>
+        <v>-75.63999999999999</v>
       </c>
     </row>
     <row r="89">
@@ -2200,16 +2200,16 @@
         <v>3</v>
       </c>
       <c r="C89" t="n">
-        <v>4.900000000000034</v>
+        <v>-6.979999999999961</v>
       </c>
       <c r="D89" t="n">
-        <v>-5.279999999999973</v>
+        <v>-25.01999999999998</v>
       </c>
       <c r="E89" t="n">
-        <v>-34.06999999999999</v>
+        <v>-36.92000000000002</v>
       </c>
       <c r="F89" t="n">
-        <v>-23.56</v>
+        <v>-93.35000000000002</v>
       </c>
     </row>
     <row r="90">
@@ -2220,16 +2220,16 @@
         <v>4</v>
       </c>
       <c r="C90" t="n">
-        <v>-37.13</v>
+        <v>-27.91999999999996</v>
       </c>
       <c r="D90" t="n">
-        <v>-39.50999999999999</v>
+        <v>-25.86000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>-52.19</v>
+        <v>-31.77000000000004</v>
       </c>
       <c r="F90" t="n">
-        <v>-40.17999999999995</v>
+        <v>-61.48000000000002</v>
       </c>
     </row>
     <row r="91">
@@ -2240,16 +2240,16 @@
         <v>5</v>
       </c>
       <c r="C91" t="n">
-        <v>-33.96999999999997</v>
+        <v>-32.64999999999998</v>
       </c>
       <c r="D91" t="n">
-        <v>-33.01999999999998</v>
+        <v>-30.45999999999998</v>
       </c>
       <c r="E91" t="n">
-        <v>-57.88</v>
+        <v>-29.95000000000005</v>
       </c>
       <c r="F91" t="n">
-        <v>-36.09999999999997</v>
+        <v>-80.22000000000003</v>
       </c>
     </row>
     <row r="92">
@@ -2260,16 +2260,16 @@
         <v>6</v>
       </c>
       <c r="C92" t="n">
-        <v>-48.81</v>
+        <v>-41.76999999999998</v>
       </c>
       <c r="D92" t="n">
-        <v>-49.24000000000001</v>
+        <v>-34.05000000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>-55.31999999999999</v>
+        <v>-30.05000000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>-49.84999999999997</v>
+        <v>-93.63999999999999</v>
       </c>
     </row>
     <row r="93">
@@ -2280,16 +2280,16 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>-21.08999999999997</v>
+        <v>-37.46999999999997</v>
       </c>
       <c r="D93" t="n">
-        <v>-4.839999999999975</v>
+        <v>-14.76999999999998</v>
       </c>
       <c r="E93" t="n">
-        <v>-3.420000000000016</v>
+        <v>-33.36000000000001</v>
       </c>
       <c r="F93" t="n">
-        <v>10.65000000000003</v>
+        <v>-62.94</v>
       </c>
     </row>
     <row r="94">
@@ -2300,16 +2300,16 @@
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>-19.44999999999999</v>
+        <v>-12.13999999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>37.28000000000003</v>
+        <v>-4.889999999999986</v>
       </c>
       <c r="E94" t="n">
-        <v>2.460000000000036</v>
+        <v>-18.66000000000003</v>
       </c>
       <c r="F94" t="n">
-        <v>-12.00999999999999</v>
+        <v>-79.18000000000001</v>
       </c>
     </row>
     <row r="95">
@@ -2320,16 +2320,16 @@
         <v>2</v>
       </c>
       <c r="C95" t="n">
-        <v>-45.22999999999996</v>
+        <v>-30.25999999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>-29.87</v>
+        <v>-26.58999999999997</v>
       </c>
       <c r="E95" t="n">
-        <v>-44.84999999999997</v>
+        <v>-24.20000000000005</v>
       </c>
       <c r="F95" t="n">
-        <v>-43.75</v>
+        <v>-62.67000000000002</v>
       </c>
     </row>
     <row r="96">
@@ -2340,16 +2340,16 @@
         <v>3</v>
       </c>
       <c r="C96" t="n">
-        <v>19.28000000000003</v>
+        <v>-4.029999999999973</v>
       </c>
       <c r="D96" t="n">
-        <v>3.569999999999993</v>
+        <v>-16.28999999999996</v>
       </c>
       <c r="E96" t="n">
-        <v>-35.57999999999998</v>
+        <v>-30.89000000000004</v>
       </c>
       <c r="F96" t="n">
-        <v>-22.58999999999997</v>
+        <v>-81.13999999999999</v>
       </c>
     </row>
     <row r="97">
@@ -2360,16 +2360,16 @@
         <v>4</v>
       </c>
       <c r="C97" t="n">
-        <v>-26.46999999999997</v>
+        <v>-23.69</v>
       </c>
       <c r="D97" t="n">
-        <v>-29.61000000000001</v>
+        <v>-25.01999999999998</v>
       </c>
       <c r="E97" t="n">
-        <v>-51.39999999999998</v>
+        <v>-26.86000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>-37.57999999999998</v>
+        <v>-67.19</v>
       </c>
     </row>
     <row r="98">
@@ -2380,16 +2380,16 @@
         <v>5</v>
       </c>
       <c r="C98" t="n">
-        <v>-32.70999999999998</v>
+        <v>-46.88999999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>-29.94</v>
+        <v>-39.63</v>
       </c>
       <c r="E98" t="n">
-        <v>-53.88</v>
+        <v>-41.20000000000005</v>
       </c>
       <c r="F98" t="n">
-        <v>-42.63999999999999</v>
+        <v>-95.64999999999998</v>
       </c>
     </row>
     <row r="99">
@@ -2400,16 +2400,16 @@
         <v>6</v>
       </c>
       <c r="C99" t="n">
-        <v>-44.17000000000002</v>
+        <v>-45.00999999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>-49.30000000000001</v>
+        <v>-38.48000000000002</v>
       </c>
       <c r="E99" t="n">
-        <v>-62.44999999999999</v>
+        <v>-31.92000000000002</v>
       </c>
       <c r="F99" t="n">
-        <v>-47.89999999999998</v>
+        <v>-92.48000000000002</v>
       </c>
     </row>
     <row r="100">
@@ -2420,16 +2420,16 @@
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>-32.03999999999996</v>
+        <v>-67.96999999999997</v>
       </c>
       <c r="D100" t="n">
-        <v>-19.62</v>
+        <v>-43.43000000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>-15.56999999999999</v>
+        <v>-59.74000000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.849999999999966</v>
+        <v>-97.24000000000001</v>
       </c>
     </row>
     <row r="101">
@@ -2440,16 +2440,16 @@
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>-8.909999999999968</v>
+        <v>-13.25999999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>48.82999999999998</v>
+        <v>-10.30000000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>11.79000000000002</v>
+        <v>-19.43000000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.95999999999998</v>
+        <v>-86.44</v>
       </c>
     </row>
     <row r="102">
@@ -2460,16 +2460,16 @@
         <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>-42.18000000000001</v>
+        <v>-36.20999999999998</v>
       </c>
       <c r="D102" t="n">
-        <v>-27.42000000000002</v>
+        <v>-32.03999999999996</v>
       </c>
       <c r="E102" t="n">
-        <v>-40.09999999999997</v>
+        <v>-29.59000000000003</v>
       </c>
       <c r="F102" t="n">
-        <v>-44.01999999999998</v>
+        <v>-69.06</v>
       </c>
     </row>
     <row r="103">
@@ -2480,16 +2480,16 @@
         <v>3</v>
       </c>
       <c r="C103" t="n">
-        <v>2.079999999999984</v>
+        <v>-7.689999999999998</v>
       </c>
       <c r="D103" t="n">
-        <v>-17.68000000000001</v>
+        <v>-23.82999999999998</v>
       </c>
       <c r="E103" t="n">
-        <v>-52.78999999999996</v>
+        <v>-38.07000000000005</v>
       </c>
       <c r="F103" t="n">
-        <v>-44.78999999999996</v>
+        <v>-89.69</v>
       </c>
     </row>
     <row r="104">
@@ -2500,16 +2500,16 @@
         <v>4</v>
       </c>
       <c r="C104" t="n">
-        <v>-34.63999999999999</v>
+        <v>-22.27999999999997</v>
       </c>
       <c r="D104" t="n">
-        <v>-40.51999999999998</v>
+        <v>-18.50999999999999</v>
       </c>
       <c r="E104" t="n">
-        <v>-58.40999999999997</v>
+        <v>-28.91000000000003</v>
       </c>
       <c r="F104" t="n">
-        <v>-48.17999999999995</v>
+        <v>-50.19999999999999</v>
       </c>
     </row>
     <row r="105">
@@ -2520,16 +2520,16 @@
         <v>5</v>
       </c>
       <c r="C105" t="n">
-        <v>-45.15999999999997</v>
+        <v>-21.40999999999997</v>
       </c>
       <c r="D105" t="n">
-        <v>-38.30000000000001</v>
+        <v>-18.03999999999996</v>
       </c>
       <c r="E105" t="n">
-        <v>-59.34999999999997</v>
+        <v>-23.23000000000002</v>
       </c>
       <c r="F105" t="n">
-        <v>-30.47999999999996</v>
+        <v>-72.44</v>
       </c>
     </row>
     <row r="106">
@@ -2540,16 +2540,16 @@
         <v>6</v>
       </c>
       <c r="C106" t="n">
-        <v>-50.32999999999998</v>
+        <v>-30.25999999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>-54.16000000000003</v>
+        <v>-22.69999999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>-68.44999999999999</v>
+        <v>-23.01000000000005</v>
       </c>
       <c r="F106" t="n">
-        <v>-55.08999999999997</v>
+        <v>-78.31</v>
       </c>
     </row>
     <row r="107">
@@ -2560,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.5199999999999818</v>
+        <v>24.19999999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>-10.28999999999996</v>
+        <v>0.5200000000000387</v>
       </c>
       <c r="E107" t="n">
-        <v>-20.48000000000002</v>
+        <v>-10.02000000000004</v>
       </c>
       <c r="F107" t="n">
-        <v>-1.020000000000039</v>
+        <v>11.60000000000002</v>
       </c>
     </row>
     <row r="108">
@@ -2580,16 +2580,16 @@
         <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>34.12</v>
+        <v>35.52999999999997</v>
       </c>
       <c r="D108" t="n">
-        <v>19.80000000000001</v>
+        <v>30.94</v>
       </c>
       <c r="E108" t="n">
-        <v>23.11999999999995</v>
+        <v>35.83999999999997</v>
       </c>
       <c r="F108" t="n">
-        <v>5.399999999999977</v>
+        <v>43.81999999999999</v>
       </c>
     </row>
     <row r="109">
@@ -2600,16 +2600,16 @@
         <v>2</v>
       </c>
       <c r="C109" t="n">
-        <v>1.660000000000025</v>
+        <v>16.60000000000002</v>
       </c>
       <c r="D109" t="n">
-        <v>-4.369999999999948</v>
+        <v>7.770000000000039</v>
       </c>
       <c r="E109" t="n">
-        <v>-9.640000000000043</v>
+        <v>2.649999999999977</v>
       </c>
       <c r="F109" t="n">
-        <v>-2.440000000000055</v>
+        <v>21.39999999999998</v>
       </c>
     </row>
     <row r="110">
@@ -2620,16 +2620,16 @@
         <v>3</v>
       </c>
       <c r="C110" t="n">
-        <v>40.63999999999999</v>
+        <v>50.75</v>
       </c>
       <c r="D110" t="n">
-        <v>11.25</v>
+        <v>27.47000000000003</v>
       </c>
       <c r="E110" t="n">
-        <v>-11.25</v>
+        <v>7.139999999999986</v>
       </c>
       <c r="F110" t="n">
-        <v>8.829999999999984</v>
+        <v>5.689999999999998</v>
       </c>
     </row>
     <row r="111">
@@ -2640,16 +2640,16 @@
         <v>4</v>
       </c>
       <c r="C111" t="n">
-        <v>7.279999999999973</v>
+        <v>30.07999999999998</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9900000000000091</v>
+        <v>21.10000000000002</v>
       </c>
       <c r="E111" t="n">
-        <v>-12.22000000000003</v>
+        <v>8.310000000000002</v>
       </c>
       <c r="F111" t="n">
-        <v>-4.020000000000039</v>
+        <v>9.110000000000014</v>
       </c>
     </row>
     <row r="112">
@@ -2660,16 +2660,16 @@
         <v>5</v>
       </c>
       <c r="C112" t="n">
-        <v>9.529999999999973</v>
+        <v>21.30000000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>-2.759999999999991</v>
+        <v>2.370000000000005</v>
       </c>
       <c r="E112" t="n">
-        <v>-20.82000000000005</v>
+        <v>-5.04000000000002</v>
       </c>
       <c r="F112" t="n">
-        <v>-23.84000000000003</v>
+        <v>-8.980000000000018</v>
       </c>
     </row>
     <row r="113">
@@ -2680,16 +2680,16 @@
         <v>6</v>
       </c>
       <c r="C113" t="n">
-        <v>-1.930000000000007</v>
+        <v>17.98000000000002</v>
       </c>
       <c r="D113" t="n">
-        <v>-11.23999999999995</v>
+        <v>-0.3899999999999864</v>
       </c>
       <c r="E113" t="n">
-        <v>-16.70000000000005</v>
+        <v>1.129999999999995</v>
       </c>
       <c r="F113" t="n">
-        <v>-31.22000000000003</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="114">
@@ -2700,16 +2700,16 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0.4900000000000091</v>
+        <v>10.87</v>
       </c>
       <c r="D114" t="n">
-        <v>8.370000000000005</v>
+        <v>-3.370000000000005</v>
       </c>
       <c r="E114" t="n">
-        <v>-19.61000000000001</v>
+        <v>-20.53000000000003</v>
       </c>
       <c r="F114" t="n">
-        <v>30.14999999999998</v>
+        <v>1.189999999999998</v>
       </c>
     </row>
     <row r="115">
@@ -2720,16 +2720,16 @@
         <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>23.41000000000003</v>
+        <v>30.88999999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>15.76000000000005</v>
+        <v>24.12</v>
       </c>
       <c r="E115" t="n">
-        <v>26.65999999999997</v>
+        <v>37.08999999999997</v>
       </c>
       <c r="F115" t="n">
-        <v>-5.200000000000045</v>
+        <v>27.26999999999998</v>
       </c>
     </row>
     <row r="116">
@@ -2740,16 +2740,16 @@
         <v>2</v>
       </c>
       <c r="C116" t="n">
-        <v>-4.170000000000016</v>
+        <v>1.430000000000007</v>
       </c>
       <c r="D116" t="n">
-        <v>-6.25</v>
+        <v>-10.03999999999996</v>
       </c>
       <c r="E116" t="n">
-        <v>-12.99000000000001</v>
+        <v>-8.819999999999993</v>
       </c>
       <c r="F116" t="n">
-        <v>-2.07000000000005</v>
+        <v>-6.350000000000023</v>
       </c>
     </row>
     <row r="117">
@@ -2760,16 +2760,16 @@
         <v>3</v>
       </c>
       <c r="C117" t="n">
-        <v>34.5</v>
+        <v>11.54000000000002</v>
       </c>
       <c r="D117" t="n">
-        <v>9.110000000000014</v>
+        <v>-7.269999999999982</v>
       </c>
       <c r="E117" t="n">
-        <v>-16.49000000000001</v>
+        <v>-18.28000000000003</v>
       </c>
       <c r="F117" t="n">
-        <v>-0.7900000000000205</v>
+        <v>-22.64999999999998</v>
       </c>
     </row>
     <row r="118">
@@ -2780,16 +2780,16 @@
         <v>4</v>
       </c>
       <c r="C118" t="n">
-        <v>2.589999999999975</v>
+        <v>13.12</v>
       </c>
       <c r="D118" t="n">
-        <v>1.850000000000023</v>
+        <v>4.29000000000002</v>
       </c>
       <c r="E118" t="n">
-        <v>-18.80000000000001</v>
+        <v>0.8100000000000023</v>
       </c>
       <c r="F118" t="n">
-        <v>-10.34000000000003</v>
+        <v>-7.829999999999984</v>
       </c>
     </row>
     <row r="119">
@@ -2800,16 +2800,16 @@
         <v>5</v>
       </c>
       <c r="C119" t="n">
-        <v>-1.019999999999982</v>
+        <v>-10.35000000000002</v>
       </c>
       <c r="D119" t="n">
-        <v>-10.08999999999997</v>
+        <v>-21.97999999999996</v>
       </c>
       <c r="E119" t="n">
-        <v>-24.41000000000003</v>
+        <v>-22.36000000000001</v>
       </c>
       <c r="F119" t="n">
-        <v>-35.57000000000005</v>
+        <v>-30.79000000000002</v>
       </c>
     </row>
     <row r="120">
@@ -2820,16 +2820,16 @@
         <v>6</v>
       </c>
       <c r="C120" t="n">
-        <v>-7.769999999999982</v>
+        <v>-11.85000000000002</v>
       </c>
       <c r="D120" t="n">
-        <v>-13.59999999999997</v>
+        <v>-17.12</v>
       </c>
       <c r="E120" t="n">
-        <v>-6.600000000000023</v>
+        <v>-16.06999999999999</v>
       </c>
       <c r="F120" t="n">
-        <v>-41</v>
+        <v>-32.75</v>
       </c>
     </row>
     <row r="121">
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>-4.740000000000009</v>
+        <v>13.12</v>
       </c>
       <c r="D121" t="n">
-        <v>6.110000000000014</v>
+        <v>5.490000000000009</v>
       </c>
       <c r="E121" t="n">
-        <v>-21.82000000000005</v>
+        <v>-8.390000000000043</v>
       </c>
       <c r="F121" t="n">
-        <v>23.75999999999999</v>
+        <v>5.899999999999977</v>
       </c>
     </row>
     <row r="122">
@@ -2860,16 +2860,16 @@
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>23.5</v>
+        <v>33.31999999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>10.81</v>
+        <v>17.98000000000002</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.410000000000025</v>
+        <v>23.78999999999996</v>
       </c>
       <c r="F122" t="n">
-        <v>-21.49000000000001</v>
+        <v>1.589999999999975</v>
       </c>
     </row>
     <row r="123">
@@ -2880,16 +2880,16 @@
         <v>2</v>
       </c>
       <c r="C123" t="n">
-        <v>-6.550000000000011</v>
+        <v>11.17000000000002</v>
       </c>
       <c r="D123" t="n">
-        <v>-8.789999999999964</v>
+        <v>0.5200000000000387</v>
       </c>
       <c r="E123" t="n">
-        <v>-16.56</v>
+        <v>-3.990000000000009</v>
       </c>
       <c r="F123" t="n">
-        <v>-18.49000000000001</v>
+        <v>-0.8000000000000114</v>
       </c>
     </row>
     <row r="124">
@@ -2900,16 +2900,16 @@
         <v>3</v>
       </c>
       <c r="C124" t="n">
-        <v>28.94999999999999</v>
+        <v>32.01999999999998</v>
       </c>
       <c r="D124" t="n">
-        <v>1.200000000000045</v>
+        <v>15.94999999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>-22.42000000000002</v>
+        <v>-6.199999999999989</v>
       </c>
       <c r="F124" t="n">
-        <v>-16.51000000000005</v>
+        <v>-17.18000000000001</v>
       </c>
     </row>
     <row r="125">
@@ -2920,16 +2920,16 @@
         <v>4</v>
       </c>
       <c r="C125" t="n">
-        <v>3.610000000000014</v>
+        <v>8.569999999999993</v>
       </c>
       <c r="D125" t="n">
-        <v>1.350000000000023</v>
+        <v>1.050000000000011</v>
       </c>
       <c r="E125" t="n">
-        <v>-19.88000000000005</v>
+        <v>-7</v>
       </c>
       <c r="F125" t="n">
-        <v>-11</v>
+        <v>-13.33999999999997</v>
       </c>
     </row>
     <row r="126">
@@ -2940,16 +2940,16 @@
         <v>5</v>
       </c>
       <c r="C126" t="n">
-        <v>5.819999999999993</v>
+        <v>5.259999999999991</v>
       </c>
       <c r="D126" t="n">
-        <v>-3.739999999999952</v>
+        <v>-1.560000000000002</v>
       </c>
       <c r="E126" t="n">
-        <v>-22.69</v>
+        <v>-13.72000000000003</v>
       </c>
       <c r="F126" t="n">
-        <v>-28.67000000000002</v>
+        <v>-22.11000000000001</v>
       </c>
     </row>
     <row r="127">
@@ -2960,16 +2960,16 @@
         <v>6</v>
       </c>
       <c r="C127" t="n">
-        <v>-6.79000000000002</v>
+        <v>-0.2200000000000273</v>
       </c>
       <c r="D127" t="n">
-        <v>-11.38</v>
+        <v>-4.139999999999986</v>
       </c>
       <c r="E127" t="n">
-        <v>-21.96000000000004</v>
+        <v>-7.180000000000007</v>
       </c>
       <c r="F127" t="n">
-        <v>-37.85000000000002</v>
+        <v>-24.08999999999997</v>
       </c>
     </row>
     <row r="128">
@@ -2980,16 +2980,16 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>-6.060000000000002</v>
+        <v>3.949999999999989</v>
       </c>
       <c r="D128" t="n">
-        <v>5.020000000000039</v>
+        <v>2.370000000000005</v>
       </c>
       <c r="E128" t="n">
-        <v>-24.08000000000004</v>
+        <v>-19.15000000000003</v>
       </c>
       <c r="F128" t="n">
-        <v>13.09999999999997</v>
+        <v>6.370000000000005</v>
       </c>
     </row>
     <row r="129">
@@ -3000,16 +3000,16 @@
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>24.13999999999999</v>
+        <v>12.13999999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>10.66000000000003</v>
+        <v>7.300000000000011</v>
       </c>
       <c r="E129" t="n">
-        <v>1.199999999999989</v>
+        <v>8.050000000000011</v>
       </c>
       <c r="F129" t="n">
-        <v>-25.21000000000004</v>
+        <v>7.740000000000009</v>
       </c>
     </row>
     <row r="130">
@@ -3020,16 +3020,16 @@
         <v>2</v>
       </c>
       <c r="C130" t="n">
-        <v>-5.399999999999977</v>
+        <v>5.920000000000016</v>
       </c>
       <c r="D130" t="n">
-        <v>-8.17999999999995</v>
+        <v>0.5900000000000318</v>
       </c>
       <c r="E130" t="n">
-        <v>-15.67000000000002</v>
+        <v>-5.770000000000039</v>
       </c>
       <c r="F130" t="n">
-        <v>-10.63000000000005</v>
+        <v>-2.379999999999995</v>
       </c>
     </row>
     <row r="131">
@@ -3040,16 +3040,16 @@
         <v>3</v>
       </c>
       <c r="C131" t="n">
-        <v>26.81</v>
+        <v>37.25999999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>2.78000000000003</v>
+        <v>21.68000000000001</v>
       </c>
       <c r="E131" t="n">
-        <v>-19.21000000000004</v>
+        <v>-2.689999999999998</v>
       </c>
       <c r="F131" t="n">
-        <v>-6.240000000000009</v>
+        <v>-11.06999999999999</v>
       </c>
     </row>
     <row r="132">
@@ -3060,16 +3060,16 @@
         <v>4</v>
       </c>
       <c r="C132" t="n">
-        <v>1.329999999999984</v>
+        <v>16.44999999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>-2.409999999999968</v>
+        <v>22.46000000000004</v>
       </c>
       <c r="E132" t="n">
-        <v>-21.22000000000003</v>
+        <v>-6.939999999999998</v>
       </c>
       <c r="F132" t="n">
-        <v>-14.95000000000005</v>
+        <v>-4.730000000000018</v>
       </c>
     </row>
     <row r="133">
@@ -3080,16 +3080,16 @@
         <v>5</v>
       </c>
       <c r="C133" t="n">
-        <v>6.339999999999975</v>
+        <v>14.48000000000002</v>
       </c>
       <c r="D133" t="n">
-        <v>-3.599999999999966</v>
+        <v>4.949999999999989</v>
       </c>
       <c r="E133" t="n">
-        <v>-23.62</v>
+        <v>-5.900000000000034</v>
       </c>
       <c r="F133" t="n">
-        <v>-31.55000000000001</v>
+        <v>-17.98000000000002</v>
       </c>
     </row>
     <row r="134">
@@ -3100,16 +3100,16 @@
         <v>6</v>
       </c>
       <c r="C134" t="n">
-        <v>-5.970000000000027</v>
+        <v>2.29000000000002</v>
       </c>
       <c r="D134" t="n">
-        <v>-12.79999999999995</v>
+        <v>0.06999999999999318</v>
       </c>
       <c r="E134" t="n">
-        <v>-23.02000000000004</v>
+        <v>-6.449999999999989</v>
       </c>
       <c r="F134" t="n">
-        <v>-39.72000000000003</v>
+        <v>-17.49000000000001</v>
       </c>
     </row>
     <row r="135">
@@ -3120,16 +3120,16 @@
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>-7.769999999999982</v>
+        <v>1.279999999999973</v>
       </c>
       <c r="D135" t="n">
-        <v>4.150000000000034</v>
+        <v>0.9200000000000159</v>
       </c>
       <c r="E135" t="n">
-        <v>-23.49000000000001</v>
+        <v>-19.84000000000003</v>
       </c>
       <c r="F135" t="n">
-        <v>10.16999999999996</v>
+        <v>4.069999999999993</v>
       </c>
     </row>
     <row r="136">
@@ -3140,16 +3140,16 @@
         <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>18.88999999999999</v>
+        <v>36.11000000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>11.11000000000001</v>
+        <v>33.78000000000003</v>
       </c>
       <c r="E136" t="n">
-        <v>-4.82000000000005</v>
+        <v>28.63999999999999</v>
       </c>
       <c r="F136" t="n">
-        <v>-28.94000000000005</v>
+        <v>17.44999999999999</v>
       </c>
     </row>
     <row r="137">
@@ -3160,16 +3160,16 @@
         <v>2</v>
       </c>
       <c r="C137" t="n">
-        <v>-9.149999999999977</v>
+        <v>13.94999999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>-11.30999999999995</v>
+        <v>12.55000000000001</v>
       </c>
       <c r="E137" t="n">
-        <v>-20.82000000000005</v>
+        <v>0.3700000000000045</v>
       </c>
       <c r="F137" t="n">
-        <v>-19.82000000000005</v>
+        <v>4.949999999999989</v>
       </c>
     </row>
     <row r="138">
@@ -3180,16 +3180,16 @@
         <v>3</v>
       </c>
       <c r="C138" t="n">
-        <v>24.79000000000002</v>
+        <v>29.60000000000002</v>
       </c>
       <c r="D138" t="n">
-        <v>3.350000000000023</v>
+        <v>18.34000000000003</v>
       </c>
       <c r="E138" t="n">
-        <v>-21.62</v>
+        <v>-4.850000000000023</v>
       </c>
       <c r="F138" t="n">
-        <v>-10.27000000000004</v>
+        <v>-6.670000000000016</v>
       </c>
     </row>
     <row r="139">
@@ -3200,16 +3200,16 @@
         <v>4</v>
       </c>
       <c r="C139" t="n">
-        <v>0.910000000000025</v>
+        <v>13.49000000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>-1</v>
+        <v>15.31999999999999</v>
       </c>
       <c r="E139" t="n">
-        <v>-22.16000000000003</v>
+        <v>10.53999999999996</v>
       </c>
       <c r="F139" t="n">
-        <v>-17.93000000000001</v>
+        <v>-3.889999999999986</v>
       </c>
     </row>
     <row r="140">
@@ -3220,16 +3220,16 @@
         <v>5</v>
       </c>
       <c r="C140" t="n">
-        <v>1.240000000000009</v>
+        <v>-29.88999999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>-6.109999999999957</v>
+        <v>-36.11000000000001</v>
       </c>
       <c r="E140" t="n">
-        <v>-25.73000000000002</v>
+        <v>-32.56999999999999</v>
       </c>
       <c r="F140" t="n">
-        <v>-33.14000000000004</v>
+        <v>-45.93000000000001</v>
       </c>
     </row>
     <row r="141">
@@ -3240,16 +3240,16 @@
         <v>6</v>
       </c>
       <c r="C141" t="n">
-        <v>-8.180000000000007</v>
+        <v>-39.07999999999998</v>
       </c>
       <c r="D141" t="n">
-        <v>-15.33999999999997</v>
+        <v>-35.5</v>
       </c>
       <c r="E141" t="n">
-        <v>-24.01000000000005</v>
+        <v>-35.21000000000004</v>
       </c>
       <c r="F141" t="n">
-        <v>-40.30000000000001</v>
+        <v>-52.25</v>
       </c>
     </row>
     <row r="142">
@@ -3260,16 +3260,16 @@
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>-5.399999999999977</v>
+        <v>3.370000000000005</v>
       </c>
       <c r="D142" t="n">
-        <v>9.990000000000009</v>
+        <v>11.04000000000002</v>
       </c>
       <c r="E142" t="n">
-        <v>-24.87</v>
+        <v>-12.71000000000004</v>
       </c>
       <c r="F142" t="n">
-        <v>13.41999999999996</v>
+        <v>8.699999999999989</v>
       </c>
     </row>
     <row r="143">
@@ -3280,16 +3280,16 @@
         <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>17.81</v>
+        <v>-1</v>
       </c>
       <c r="D143" t="n">
-        <v>16.67000000000002</v>
+        <v>0.2599999999999909</v>
       </c>
       <c r="E143" t="n">
-        <v>-4.75</v>
+        <v>5.139999999999986</v>
       </c>
       <c r="F143" t="n">
-        <v>-32.88000000000005</v>
+        <v>-26.33999999999997</v>
       </c>
     </row>
     <row r="144">
@@ -3300,16 +3300,16 @@
         <v>2</v>
       </c>
       <c r="C144" t="n">
-        <v>-8.420000000000016</v>
+        <v>3.300000000000011</v>
       </c>
       <c r="D144" t="n">
-        <v>-6.939999999999998</v>
+        <v>7.170000000000016</v>
       </c>
       <c r="E144" t="n">
-        <v>-21.49000000000001</v>
+        <v>-0.3199999999999932</v>
       </c>
       <c r="F144" t="n">
-        <v>-14.95000000000005</v>
+        <v>3.660000000000025</v>
       </c>
     </row>
     <row r="145">
@@ -3320,16 +3320,16 @@
         <v>3</v>
       </c>
       <c r="C145" t="n">
-        <v>29.23000000000002</v>
+        <v>-18.94</v>
       </c>
       <c r="D145" t="n">
-        <v>3.28000000000003</v>
+        <v>-19.52999999999997</v>
       </c>
       <c r="E145" t="n">
-        <v>-21.56</v>
+        <v>-38.08000000000004</v>
       </c>
       <c r="F145" t="n">
-        <v>-15.24000000000001</v>
+        <v>-45.44</v>
       </c>
     </row>
     <row r="146">
@@ -3340,16 +3340,16 @@
         <v>4</v>
       </c>
       <c r="C146" t="n">
-        <v>-3.920000000000016</v>
+        <v>-14.41000000000003</v>
       </c>
       <c r="D146" t="n">
-        <v>-3.809999999999945</v>
+        <v>-12.52999999999997</v>
       </c>
       <c r="E146" t="n">
-        <v>-24.34000000000003</v>
+        <v>-8.759999999999991</v>
       </c>
       <c r="F146" t="n">
-        <v>-23.98000000000002</v>
+        <v>-31.60000000000002</v>
       </c>
     </row>
     <row r="147">
@@ -3360,16 +3360,16 @@
         <v>5</v>
       </c>
       <c r="C147" t="n">
-        <v>-1.769999999999982</v>
+        <v>-34.25</v>
       </c>
       <c r="D147" t="n">
-        <v>-9.67999999999995</v>
+        <v>-32.06999999999999</v>
       </c>
       <c r="E147" t="n">
-        <v>-28.98000000000002</v>
+        <v>-35.59000000000003</v>
       </c>
       <c r="F147" t="n">
-        <v>-40.04000000000002</v>
+        <v>-48.5</v>
       </c>
     </row>
     <row r="148">
@@ -3380,16 +3380,16 @@
         <v>6</v>
       </c>
       <c r="C148" t="n">
-        <v>-12.27999999999997</v>
+        <v>-9.45999999999998</v>
       </c>
       <c r="D148" t="n">
-        <v>-15.73999999999995</v>
+        <v>-12.21999999999997</v>
       </c>
       <c r="E148" t="n">
-        <v>-16.08000000000004</v>
+        <v>-13.13</v>
       </c>
       <c r="F148" t="n">
-        <v>-43.04000000000002</v>
+        <v>-40.24000000000001</v>
       </c>
     </row>
     <row r="149">
@@ -3400,16 +3400,16 @@
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>-8.660000000000025</v>
+        <v>-4.389999999999986</v>
       </c>
       <c r="D149" t="n">
-        <v>6.25</v>
+        <v>15.81</v>
       </c>
       <c r="E149" t="n">
-        <v>-27.75</v>
+        <v>-14.66000000000003</v>
       </c>
       <c r="F149" t="n">
-        <v>4.089999999999975</v>
+        <v>8.899999999999977</v>
       </c>
     </row>
     <row r="150">
@@ -3420,16 +3420,16 @@
         <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>15.49000000000001</v>
+        <v>11.17000000000002</v>
       </c>
       <c r="D150" t="n">
-        <v>13.80000000000001</v>
+        <v>12.69</v>
       </c>
       <c r="E150" t="n">
-        <v>-6.960000000000036</v>
+        <v>17.27999999999997</v>
       </c>
       <c r="F150" t="n">
-        <v>-35.38000000000005</v>
+        <v>-14.58999999999997</v>
       </c>
     </row>
     <row r="151">
@@ -3440,16 +3440,16 @@
         <v>2</v>
       </c>
       <c r="C151" t="n">
-        <v>-9.230000000000018</v>
+        <v>-21.56999999999999</v>
       </c>
       <c r="D151" t="n">
-        <v>-10.76999999999998</v>
+        <v>-16.08999999999997</v>
       </c>
       <c r="E151" t="n">
-        <v>-23.82000000000005</v>
+        <v>-21.79000000000002</v>
       </c>
       <c r="F151" t="n">
-        <v>-19.61000000000001</v>
+        <v>-23.73000000000002</v>
       </c>
     </row>
     <row r="152">
@@ -3460,16 +3460,16 @@
         <v>3</v>
       </c>
       <c r="C152" t="n">
-        <v>39.29000000000002</v>
+        <v>-9.389999999999986</v>
       </c>
       <c r="D152" t="n">
-        <v>2.920000000000016</v>
+        <v>-14.93000000000001</v>
       </c>
       <c r="E152" t="n">
-        <v>-23.09000000000003</v>
+        <v>-33.06</v>
       </c>
       <c r="F152" t="n">
-        <v>-22.32000000000005</v>
+        <v>-44.25</v>
       </c>
     </row>
     <row r="153">
@@ -3480,16 +3480,16 @@
         <v>4</v>
       </c>
       <c r="C153" t="n">
-        <v>0.7400000000000091</v>
+        <v>-35.30000000000001</v>
       </c>
       <c r="D153" t="n">
-        <v>-5.759999999999991</v>
+        <v>-30.30000000000001</v>
       </c>
       <c r="E153" t="n">
-        <v>-26.51000000000005</v>
+        <v>-29.40000000000003</v>
       </c>
       <c r="F153" t="n">
-        <v>-26.03000000000003</v>
+        <v>-54.07999999999998</v>
       </c>
     </row>
     <row r="154">
@@ -3500,16 +3500,16 @@
         <v>5</v>
       </c>
       <c r="C154" t="n">
-        <v>-2.850000000000023</v>
+        <v>-26.33999999999997</v>
       </c>
       <c r="D154" t="n">
-        <v>-9.409999999999968</v>
+        <v>-28.57999999999998</v>
       </c>
       <c r="E154" t="n">
-        <v>-31.69</v>
+        <v>-31.16000000000003</v>
       </c>
       <c r="F154" t="n">
-        <v>-38.95000000000005</v>
+        <v>-54.55000000000001</v>
       </c>
     </row>
     <row r="155">
@@ -3520,16 +3520,16 @@
         <v>6</v>
       </c>
       <c r="C155" t="n">
-        <v>-12.44</v>
+        <v>-36.82999999999998</v>
       </c>
       <c r="D155" t="n">
-        <v>-20.73999999999995</v>
+        <v>-33.53999999999996</v>
       </c>
       <c r="E155" t="n">
-        <v>-31.24000000000001</v>
+        <v>-29.94999999999999</v>
       </c>
       <c r="F155" t="n">
-        <v>-51.74000000000001</v>
+        <v>-56.30000000000001</v>
       </c>
     </row>
     <row r="156">
@@ -3540,16 +3540,16 @@
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>-7.439999999999998</v>
+        <v>-10.35000000000002</v>
       </c>
       <c r="D156" t="n">
-        <v>14.17000000000002</v>
+        <v>10.35000000000002</v>
       </c>
       <c r="E156" t="n">
-        <v>-26.51000000000005</v>
+        <v>-20.75999999999999</v>
       </c>
       <c r="F156" t="n">
-        <v>15.82999999999998</v>
+        <v>6.70999999999998</v>
       </c>
     </row>
     <row r="157">
@@ -3560,16 +3560,16 @@
         <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>12.75999999999999</v>
+        <v>15.61000000000001</v>
       </c>
       <c r="D157" t="n">
-        <v>10.81</v>
+        <v>10.90000000000003</v>
       </c>
       <c r="E157" t="n">
-        <v>-8.230000000000018</v>
+        <v>16.46999999999997</v>
       </c>
       <c r="F157" t="n">
-        <v>-38.04000000000002</v>
+        <v>-13.83999999999997</v>
       </c>
     </row>
     <row r="158">
@@ -3580,16 +3580,16 @@
         <v>2</v>
       </c>
       <c r="C158" t="n">
-        <v>-14.74000000000001</v>
+        <v>-13.19999999999999</v>
       </c>
       <c r="D158" t="n">
-        <v>-13.13</v>
+        <v>-12.45999999999998</v>
       </c>
       <c r="E158" t="n">
-        <v>-26.84000000000003</v>
+        <v>-13.25</v>
       </c>
       <c r="F158" t="n">
-        <v>-21.91000000000003</v>
+        <v>-14.82999999999998</v>
       </c>
     </row>
     <row r="159">
@@ -3600,16 +3600,16 @@
         <v>3</v>
       </c>
       <c r="C159" t="n">
-        <v>26.89999999999998</v>
+        <v>8.860000000000014</v>
       </c>
       <c r="D159" t="n">
-        <v>0.8500000000000227</v>
+        <v>-1.240000000000009</v>
       </c>
       <c r="E159" t="n">
-        <v>-25.86000000000001</v>
+        <v>-21.44999999999999</v>
       </c>
       <c r="F159" t="n">
-        <v>-21.15000000000003</v>
+        <v>-29.92000000000002</v>
       </c>
     </row>
     <row r="160">
@@ -3620,16 +3620,16 @@
         <v>4</v>
       </c>
       <c r="C160" t="n">
-        <v>-8.339999999999975</v>
+        <v>-24.68000000000001</v>
       </c>
       <c r="D160" t="n">
-        <v>-5</v>
+        <v>-21.97999999999996</v>
       </c>
       <c r="E160" t="n">
-        <v>-29.5</v>
+        <v>-25.13</v>
       </c>
       <c r="F160" t="n">
-        <v>-23.91000000000003</v>
+        <v>-41.56999999999999</v>
       </c>
     </row>
     <row r="161">
@@ -3640,16 +3640,16 @@
         <v>5</v>
       </c>
       <c r="C161" t="n">
-        <v>-3.259999999999991</v>
+        <v>-34.13</v>
       </c>
       <c r="D161" t="n">
-        <v>-12.45999999999998</v>
+        <v>-34.55000000000001</v>
       </c>
       <c r="E161" t="n">
-        <v>-31.05000000000001</v>
+        <v>-35.11000000000001</v>
       </c>
       <c r="F161" t="n">
-        <v>-42.15000000000003</v>
+        <v>-52.31</v>
       </c>
     </row>
     <row r="162">
@@ -3660,16 +3660,16 @@
         <v>6</v>
       </c>
       <c r="C162" t="n">
-        <v>-14.35000000000002</v>
+        <v>-38.35000000000002</v>
       </c>
       <c r="D162" t="n">
-        <v>-16.79999999999995</v>
+        <v>-35.27999999999997</v>
       </c>
       <c r="E162" t="n">
-        <v>-32.07000000000005</v>
+        <v>-33.49000000000001</v>
       </c>
       <c r="F162" t="n">
-        <v>-48.48000000000002</v>
+        <v>-58.94999999999999</v>
       </c>
     </row>
     <row r="163">
@@ -3680,16 +3680,16 @@
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>-9.949999999999989</v>
+        <v>-4.740000000000009</v>
       </c>
       <c r="D163" t="n">
-        <v>2.350000000000023</v>
+        <v>8.720000000000027</v>
       </c>
       <c r="E163" t="n">
-        <v>-30.66000000000003</v>
+        <v>-17.00999999999999</v>
       </c>
       <c r="F163" t="n">
-        <v>-4.020000000000039</v>
+        <v>5.490000000000009</v>
       </c>
     </row>
     <row r="164">
@@ -3700,16 +3700,16 @@
         <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>8.660000000000025</v>
+        <v>9.45999999999998</v>
       </c>
       <c r="D164" t="n">
-        <v>8.590000000000032</v>
+        <v>9.129999999999995</v>
       </c>
       <c r="E164" t="n">
-        <v>-12.85000000000002</v>
+        <v>15.85999999999996</v>
       </c>
       <c r="F164" t="n">
-        <v>-40.04000000000002</v>
+        <v>-19.50999999999999</v>
       </c>
     </row>
     <row r="165">
@@ -3720,16 +3720,16 @@
         <v>2</v>
       </c>
       <c r="C165" t="n">
-        <v>-17.11000000000001</v>
+        <v>-24.03000000000003</v>
       </c>
       <c r="D165" t="n">
-        <v>-15.00999999999999</v>
+        <v>-25.15999999999997</v>
       </c>
       <c r="E165" t="n">
-        <v>-31.69</v>
+        <v>-29.40000000000003</v>
       </c>
       <c r="F165" t="n">
-        <v>-28.94000000000005</v>
+        <v>-30.5</v>
       </c>
     </row>
     <row r="166">
@@ -3740,16 +3740,16 @@
         <v>3</v>
       </c>
       <c r="C166" t="n">
-        <v>18.35000000000002</v>
+        <v>-13.47000000000003</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.7199999999999704</v>
+        <v>-13.38999999999999</v>
       </c>
       <c r="E166" t="n">
-        <v>-30.15000000000003</v>
+        <v>-32.14000000000004</v>
       </c>
       <c r="F166" t="n">
-        <v>-25.76000000000005</v>
+        <v>-44.95999999999998</v>
       </c>
     </row>
     <row r="167">
@@ -3760,16 +3760,16 @@
         <v>4</v>
       </c>
       <c r="C167" t="n">
-        <v>-7.529999999999973</v>
+        <v>-32.94999999999999</v>
       </c>
       <c r="D167" t="n">
-        <v>-11.51999999999998</v>
+        <v>-26.56</v>
       </c>
       <c r="E167" t="n">
-        <v>-28.66000000000003</v>
+        <v>-30.78000000000003</v>
       </c>
       <c r="F167" t="n">
-        <v>-28.60000000000002</v>
+        <v>-51.51999999999998</v>
       </c>
     </row>
     <row r="168">
@@ -3780,16 +3780,16 @@
         <v>5</v>
       </c>
       <c r="C168" t="n">
-        <v>-10.36000000000001</v>
+        <v>-29.82999999999998</v>
       </c>
       <c r="D168" t="n">
-        <v>-14.47999999999996</v>
+        <v>-34.03999999999996</v>
       </c>
       <c r="E168" t="n">
-        <v>-34.80000000000001</v>
+        <v>-33.65000000000003</v>
       </c>
       <c r="F168" t="n">
-        <v>-41.13000000000005</v>
+        <v>-57.17000000000002</v>
       </c>
     </row>
     <row r="169">
@@ -3800,16 +3800,16 @@
         <v>6</v>
       </c>
       <c r="C169" t="n">
-        <v>-13.63</v>
+        <v>-44.63</v>
       </c>
       <c r="D169" t="n">
-        <v>-17.98999999999995</v>
+        <v>-43.96999999999997</v>
       </c>
       <c r="E169" t="n">
-        <v>-27.88000000000005</v>
+        <v>-43.35000000000002</v>
       </c>
       <c r="F169" t="n">
-        <v>-49.96000000000004</v>
+        <v>-50.25999999999999</v>
       </c>
     </row>
     <row r="170">
@@ -3820,16 +3820,16 @@
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>-10.68000000000001</v>
+        <v>-46.5</v>
       </c>
       <c r="D170" t="n">
-        <v>12.15000000000003</v>
+        <v>-39.31</v>
       </c>
       <c r="E170" t="n">
-        <v>-29.37</v>
+        <v>-51.18000000000001</v>
       </c>
       <c r="F170" t="n">
-        <v>7.579999999999984</v>
+        <v>-36.88999999999999</v>
       </c>
     </row>
     <row r="171">
@@ -3840,16 +3840,16 @@
         <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>13.01999999999998</v>
+        <v>-12.45999999999998</v>
       </c>
       <c r="D171" t="n">
-        <v>8.890000000000043</v>
+        <v>-5.870000000000005</v>
       </c>
       <c r="E171" t="n">
-        <v>-6.53000000000003</v>
+        <v>-13.13</v>
       </c>
       <c r="F171" t="n">
-        <v>-37.79000000000002</v>
+        <v>-30.83999999999997</v>
       </c>
     </row>
     <row r="172">
@@ -3860,16 +3860,16 @@
         <v>2</v>
       </c>
       <c r="C172" t="n">
-        <v>-16.31999999999999</v>
+        <v>-16.88999999999999</v>
       </c>
       <c r="D172" t="n">
-        <v>-15.88</v>
+        <v>-9.909999999999968</v>
       </c>
       <c r="E172" t="n">
-        <v>-30.21000000000004</v>
+        <v>-16.66000000000003</v>
       </c>
       <c r="F172" t="n">
-        <v>-30.48000000000002</v>
+        <v>-8.529999999999973</v>
       </c>
     </row>
     <row r="173">
@@ -3880,16 +3880,16 @@
         <v>3</v>
       </c>
       <c r="C173" t="n">
-        <v>10.39999999999998</v>
+        <v>23.18000000000001</v>
       </c>
       <c r="D173" t="n">
-        <v>-7.489999999999952</v>
+        <v>29.38</v>
       </c>
       <c r="E173" t="n">
-        <v>-33.66000000000003</v>
+        <v>-12</v>
       </c>
       <c r="F173" t="n">
-        <v>-29.07000000000005</v>
+        <v>-18.10000000000002</v>
       </c>
     </row>
     <row r="174">
@@ -3900,16 +3900,16 @@
         <v>4</v>
       </c>
       <c r="C174" t="n">
-        <v>-12.12</v>
+        <v>5.480000000000018</v>
       </c>
       <c r="D174" t="n">
-        <v>-8.659999999999968</v>
+        <v>11.44999999999999</v>
       </c>
       <c r="E174" t="n">
-        <v>-29.31</v>
+        <v>-1.129999999999995</v>
       </c>
       <c r="F174" t="n">
-        <v>-27.18000000000001</v>
+        <v>-14.39999999999998</v>
       </c>
     </row>
     <row r="175">
@@ -3920,16 +3920,16 @@
         <v>5</v>
       </c>
       <c r="C175" t="n">
-        <v>-9.389999999999986</v>
+        <v>-5.649999999999977</v>
       </c>
       <c r="D175" t="n">
-        <v>-10.90999999999997</v>
+        <v>-3.689999999999998</v>
       </c>
       <c r="E175" t="n">
-        <v>-34.42000000000002</v>
+        <v>-12.35000000000002</v>
       </c>
       <c r="F175" t="n">
-        <v>-43.86000000000001</v>
+        <v>-17.49000000000001</v>
       </c>
     </row>
     <row r="176">
@@ -3940,16 +3940,16 @@
         <v>6</v>
       </c>
       <c r="C176" t="n">
-        <v>-19.52999999999997</v>
+        <v>-9.25</v>
       </c>
       <c r="D176" t="n">
-        <v>-21.64999999999998</v>
+        <v>-8.589999999999975</v>
       </c>
       <c r="E176" t="n">
-        <v>-35.24000000000001</v>
+        <v>-14.37</v>
       </c>
       <c r="F176" t="n">
-        <v>-54.22000000000003</v>
+        <v>-28.05000000000001</v>
       </c>
     </row>
     <row r="177">
@@ -3960,16 +3960,16 @@
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>-15.06</v>
+        <v>-31.32999999999998</v>
       </c>
       <c r="D177" t="n">
-        <v>3.57000000000005</v>
+        <v>-13.88</v>
       </c>
       <c r="E177" t="n">
-        <v>-34.86000000000001</v>
+        <v>-42.22000000000003</v>
       </c>
       <c r="F177" t="n">
-        <v>-7.130000000000052</v>
+        <v>-28.27999999999997</v>
       </c>
     </row>
     <row r="178">
@@ -3980,16 +3980,16 @@
         <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>4.199999999999989</v>
+        <v>2.509999999999991</v>
       </c>
       <c r="D178" t="n">
-        <v>9.550000000000011</v>
+        <v>8.720000000000027</v>
       </c>
       <c r="E178" t="n">
-        <v>-6.390000000000043</v>
+        <v>0.9399999999999977</v>
       </c>
       <c r="F178" t="n">
-        <v>-34.39000000000004</v>
+        <v>-23.25</v>
       </c>
     </row>
     <row r="179">
@@ -4000,16 +4000,16 @@
         <v>2</v>
       </c>
       <c r="C179" t="n">
-        <v>-13.24000000000001</v>
+        <v>-16.95999999999998</v>
       </c>
       <c r="D179" t="n">
-        <v>-10.90999999999997</v>
+        <v>-14.00999999999999</v>
       </c>
       <c r="E179" t="n">
-        <v>-24.28000000000003</v>
+        <v>-16.06999999999999</v>
       </c>
       <c r="F179" t="n">
-        <v>-25.01000000000005</v>
+        <v>-23.43000000000001</v>
       </c>
     </row>
     <row r="180">
@@ -4020,16 +4020,16 @@
         <v>3</v>
       </c>
       <c r="C180" t="n">
-        <v>27.18000000000001</v>
+        <v>-18.01999999999998</v>
       </c>
       <c r="D180" t="n">
-        <v>2.420000000000016</v>
+        <v>-19.11000000000001</v>
       </c>
       <c r="E180" t="n">
-        <v>-25.79000000000002</v>
+        <v>-34.68000000000001</v>
       </c>
       <c r="F180" t="n">
-        <v>-24.25</v>
+        <v>-46.68000000000001</v>
       </c>
     </row>
     <row r="181">
@@ -4040,16 +4040,16 @@
         <v>4</v>
       </c>
       <c r="C181" t="n">
-        <v>-3.180000000000007</v>
+        <v>-33.44999999999999</v>
       </c>
       <c r="D181" t="n">
-        <v>-4.299999999999955</v>
+        <v>-22.93000000000001</v>
       </c>
       <c r="E181" t="n">
-        <v>-25.60000000000002</v>
+        <v>-22.81</v>
       </c>
       <c r="F181" t="n">
-        <v>-30.82000000000005</v>
+        <v>-29.68000000000001</v>
       </c>
     </row>
     <row r="182">
@@ -4060,16 +4060,16 @@
         <v>5</v>
       </c>
       <c r="C182" t="n">
-        <v>-4.089999999999975</v>
+        <v>-20.72000000000003</v>
       </c>
       <c r="D182" t="n">
-        <v>-7.489999999999952</v>
+        <v>-16.44999999999999</v>
       </c>
       <c r="E182" t="n">
-        <v>-29.82000000000005</v>
+        <v>-24.79000000000002</v>
       </c>
       <c r="F182" t="n">
-        <v>-42.15000000000003</v>
+        <v>-27.75999999999999</v>
       </c>
     </row>
     <row r="183">
@@ -4080,16 +4080,16 @@
         <v>6</v>
       </c>
       <c r="C183" t="n">
-        <v>-11.16000000000003</v>
+        <v>-28.63</v>
       </c>
       <c r="D183" t="n">
-        <v>-15.94</v>
+        <v>-21.5</v>
       </c>
       <c r="E183" t="n">
-        <v>-27.95000000000005</v>
+        <v>-21.22000000000003</v>
       </c>
       <c r="F183" t="n">
-        <v>-48.11000000000001</v>
+        <v>-37.50999999999999</v>
       </c>
     </row>
     <row r="184">
@@ -4100,16 +4100,16 @@
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>-6.220000000000027</v>
+        <v>-26.79000000000002</v>
       </c>
       <c r="D184" t="n">
-        <v>9.550000000000011</v>
+        <v>-16.63</v>
       </c>
       <c r="E184" t="n">
-        <v>-28.79000000000002</v>
+        <v>-34.03000000000003</v>
       </c>
       <c r="F184" t="n">
-        <v>4.779999999999973</v>
+        <v>-29.56999999999999</v>
       </c>
     </row>
     <row r="185">
@@ -4120,16 +4120,16 @@
         <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>9.269999999999982</v>
+        <v>16.21999999999997</v>
       </c>
       <c r="D185" t="n">
-        <v>15.23000000000002</v>
+        <v>19.47000000000003</v>
       </c>
       <c r="E185" t="n">
-        <v>-5.75</v>
+        <v>3.029999999999973</v>
       </c>
       <c r="F185" t="n">
-        <v>-34.59000000000003</v>
+        <v>-11.88999999999999</v>
       </c>
     </row>
     <row r="186">
@@ -4140,16 +4140,16 @@
         <v>2</v>
       </c>
       <c r="C186" t="n">
-        <v>-17.11000000000001</v>
+        <v>-24.61000000000001</v>
       </c>
       <c r="D186" t="n">
-        <v>-12.45999999999998</v>
+        <v>-19.05000000000001</v>
       </c>
       <c r="E186" t="n">
-        <v>-27.75</v>
+        <v>-28.58000000000004</v>
       </c>
       <c r="F186" t="n">
-        <v>-31.22000000000003</v>
+        <v>-30.83999999999997</v>
       </c>
     </row>
     <row r="187">
@@ -4160,16 +4160,16 @@
         <v>3</v>
       </c>
       <c r="C187" t="n">
-        <v>16.02999999999997</v>
+        <v>-9.110000000000014</v>
       </c>
       <c r="D187" t="n">
-        <v>1.990000000000009</v>
+        <v>-12.64999999999998</v>
       </c>
       <c r="E187" t="n">
-        <v>-26.45000000000005</v>
+        <v>-30.44999999999999</v>
       </c>
       <c r="F187" t="n">
-        <v>-16.09000000000003</v>
+        <v>-36.16000000000003</v>
       </c>
     </row>
     <row r="188">
@@ -4180,16 +4180,16 @@
         <v>4</v>
       </c>
       <c r="C188" t="n">
-        <v>-7.689999999999998</v>
+        <v>-51.24000000000001</v>
       </c>
       <c r="D188" t="n">
-        <v>-2.199999999999989</v>
+        <v>-42.94999999999999</v>
       </c>
       <c r="E188" t="n">
-        <v>-26.19</v>
+        <v>-43.56</v>
       </c>
       <c r="F188" t="n">
-        <v>-25.42000000000002</v>
+        <v>-52.25</v>
       </c>
     </row>
     <row r="189">
@@ -4200,16 +4200,16 @@
         <v>5</v>
       </c>
       <c r="C189" t="n">
-        <v>-3.009999999999991</v>
+        <v>-26.79000000000002</v>
       </c>
       <c r="D189" t="n">
-        <v>-11.38</v>
+        <v>-25.92000000000002</v>
       </c>
       <c r="E189" t="n">
-        <v>-32.20000000000005</v>
+        <v>-35.31999999999999</v>
       </c>
       <c r="F189" t="n">
-        <v>-46.87</v>
+        <v>-45.93000000000001</v>
       </c>
     </row>
     <row r="190">
@@ -4220,16 +4220,16 @@
         <v>6</v>
       </c>
       <c r="C190" t="n">
-        <v>-16.00999999999999</v>
+        <v>-32.39999999999998</v>
       </c>
       <c r="D190" t="n">
-        <v>-16.66999999999996</v>
+        <v>-28.57999999999998</v>
       </c>
       <c r="E190" t="n">
-        <v>-30.47000000000003</v>
+        <v>-35.80000000000001</v>
       </c>
       <c r="F190" t="n">
-        <v>-48.61000000000001</v>
+        <v>-46.94999999999999</v>
       </c>
     </row>
     <row r="191">
@@ -4240,16 +4240,16 @@
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>-9.870000000000005</v>
+        <v>-38.41000000000003</v>
       </c>
       <c r="D191" t="n">
-        <v>5.520000000000039</v>
+        <v>-29.89999999999998</v>
       </c>
       <c r="E191" t="n">
-        <v>-31.30000000000001</v>
+        <v>-48.29000000000002</v>
       </c>
       <c r="F191" t="n">
-        <v>-2.370000000000005</v>
+        <v>-43.31999999999999</v>
       </c>
     </row>
     <row r="192">
@@ -4260,16 +4260,16 @@
         <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>12.93000000000001</v>
+        <v>7.980000000000018</v>
       </c>
       <c r="D192" t="n">
-        <v>12.52000000000004</v>
+        <v>14.35000000000002</v>
       </c>
       <c r="E192" t="n">
-        <v>-10.69</v>
+        <v>-4.480000000000018</v>
       </c>
       <c r="F192" t="n">
-        <v>-39.85000000000002</v>
+        <v>-23.91000000000003</v>
       </c>
     </row>
     <row r="193">
@@ -4280,16 +4280,16 @@
         <v>2</v>
       </c>
       <c r="C193" t="n">
-        <v>-14.11000000000001</v>
+        <v>-19.80000000000001</v>
       </c>
       <c r="D193" t="n">
-        <v>-10.22999999999996</v>
+        <v>-17.06</v>
       </c>
       <c r="E193" t="n">
-        <v>-28.34000000000003</v>
+        <v>-32.52000000000004</v>
       </c>
       <c r="F193" t="n">
-        <v>-27.05000000000001</v>
+        <v>-24.98000000000002</v>
       </c>
     </row>
     <row r="194">
@@ -4300,16 +4300,16 @@
         <v>3</v>
       </c>
       <c r="C194" t="n">
-        <v>17.18000000000001</v>
+        <v>26.08999999999997</v>
       </c>
       <c r="D194" t="n">
-        <v>2.630000000000052</v>
+        <v>5.29000000000002</v>
       </c>
       <c r="E194" t="n">
-        <v>-26.91000000000003</v>
+        <v>-19.73000000000002</v>
       </c>
       <c r="F194" t="n">
-        <v>-15.66000000000003</v>
+        <v>-30.26999999999998</v>
       </c>
     </row>
     <row r="195">
@@ -4320,16 +4320,16 @@
         <v>4</v>
       </c>
       <c r="C195" t="n">
-        <v>-7.769999999999982</v>
+        <v>-17.55000000000001</v>
       </c>
       <c r="D195" t="n">
-        <v>-4.369999999999948</v>
+        <v>-17.06</v>
       </c>
       <c r="E195" t="n">
-        <v>-27.88000000000005</v>
+        <v>-26.86000000000001</v>
       </c>
       <c r="F195" t="n">
-        <v>-23.91000000000003</v>
+        <v>-33.94999999999999</v>
       </c>
     </row>
     <row r="196">
@@ -4340,16 +4340,16 @@
         <v>5</v>
       </c>
       <c r="C196" t="n">
-        <v>-6.70999999999998</v>
+        <v>-33.13999999999999</v>
       </c>
       <c r="D196" t="n">
-        <v>-10.83999999999997</v>
+        <v>-33.64999999999998</v>
       </c>
       <c r="E196" t="n">
-        <v>-32.64000000000004</v>
+        <v>-36.97000000000003</v>
       </c>
       <c r="F196" t="n">
-        <v>-41.58000000000004</v>
+        <v>-50.73000000000002</v>
       </c>
     </row>
     <row r="197">
@@ -4360,16 +4360,16 @@
         <v>6</v>
       </c>
       <c r="C197" t="n">
-        <v>-15.22000000000003</v>
+        <v>-20.91000000000003</v>
       </c>
       <c r="D197" t="n">
-        <v>-15.40999999999997</v>
+        <v>-22.56999999999999</v>
       </c>
       <c r="E197" t="n">
-        <v>-29.31</v>
+        <v>-34.41000000000003</v>
       </c>
       <c r="F197" t="n">
-        <v>-48.30000000000001</v>
+        <v>-37.79000000000002</v>
       </c>
     </row>
     <row r="198">
@@ -4380,16 +4380,16 @@
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>-12.36000000000001</v>
+        <v>-6.759999999999991</v>
       </c>
       <c r="D198" t="n">
-        <v>3.07000000000005</v>
+        <v>-7.839999999999975</v>
       </c>
       <c r="E198" t="n">
-        <v>-29.89000000000004</v>
+        <v>-29.84000000000003</v>
       </c>
       <c r="F198" t="n">
-        <v>-3.79000000000002</v>
+        <v>-24.20999999999998</v>
       </c>
     </row>
     <row r="199">
@@ -4400,16 +4400,16 @@
         <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>6.600000000000023</v>
+        <v>-11.50999999999999</v>
       </c>
       <c r="D199" t="n">
-        <v>14.02000000000004</v>
+        <v>-12.95999999999998</v>
       </c>
       <c r="E199" t="n">
-        <v>-5.390000000000043</v>
+        <v>-22.64000000000004</v>
       </c>
       <c r="F199" t="n">
-        <v>-42.40000000000003</v>
+        <v>-39.97000000000003</v>
       </c>
     </row>
     <row r="200">
@@ -4420,16 +4420,16 @@
         <v>2</v>
       </c>
       <c r="C200" t="n">
-        <v>-15.52999999999997</v>
+        <v>-14.81999999999999</v>
       </c>
       <c r="D200" t="n">
-        <v>-8.859999999999957</v>
+        <v>-20.72999999999996</v>
       </c>
       <c r="E200" t="n">
-        <v>-24.94</v>
+        <v>-28.02000000000004</v>
       </c>
       <c r="F200" t="n">
-        <v>-28.74000000000001</v>
+        <v>-26.29000000000002</v>
       </c>
     </row>
     <row r="201">
@@ -4440,16 +4440,16 @@
         <v>3</v>
       </c>
       <c r="C201" t="n">
-        <v>14.79000000000002</v>
+        <v>34.70999999999998</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.009999999999990905</v>
+        <v>6.020000000000039</v>
       </c>
       <c r="E201" t="n">
-        <v>-29.70000000000005</v>
+        <v>-16.25</v>
       </c>
       <c r="F201" t="n">
-        <v>-24.39000000000004</v>
+        <v>-24.63</v>
       </c>
     </row>
     <row r="202">
@@ -4460,16 +4460,16 @@
         <v>4</v>
       </c>
       <c r="C202" t="n">
-        <v>-7.930000000000007</v>
+        <v>19.82999999999998</v>
       </c>
       <c r="D202" t="n">
-        <v>-2.899999999999977</v>
+        <v>12.81999999999999</v>
       </c>
       <c r="E202" t="n">
-        <v>-28.73000000000002</v>
+        <v>-1.259999999999991</v>
       </c>
       <c r="F202" t="n">
-        <v>-25.07000000000005</v>
+        <v>-5.769999999999982</v>
       </c>
     </row>
     <row r="203">
@@ -4480,16 +4480,16 @@
         <v>5</v>
       </c>
       <c r="C203" t="n">
-        <v>-4.910000000000025</v>
+        <v>8.420000000000016</v>
       </c>
       <c r="D203" t="n">
-        <v>-10.56999999999999</v>
+        <v>-3.569999999999993</v>
       </c>
       <c r="E203" t="n">
-        <v>-32.26000000000005</v>
+        <v>-8.150000000000034</v>
       </c>
       <c r="F203" t="n">
-        <v>-44.49000000000001</v>
+        <v>-21.69</v>
       </c>
     </row>
     <row r="204">
@@ -4500,16 +4500,16 @@
         <v>6</v>
       </c>
       <c r="C204" t="n">
-        <v>-16.16000000000003</v>
+        <v>1.069999999999993</v>
       </c>
       <c r="D204" t="n">
-        <v>-15.33999999999997</v>
+        <v>-5.039999999999964</v>
       </c>
       <c r="E204" t="n">
-        <v>-32.26000000000005</v>
+        <v>-11.94</v>
       </c>
       <c r="F204" t="n">
-        <v>-47.99000000000001</v>
+        <v>-22.82999999999998</v>
       </c>
     </row>
     <row r="205">
@@ -4520,16 +4520,16 @@
         <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>-13.24000000000001</v>
+        <v>-1.569999999999993</v>
       </c>
       <c r="D205" t="n">
-        <v>8.370000000000005</v>
+        <v>-2.019999999999982</v>
       </c>
       <c r="E205" t="n">
-        <v>-31.56</v>
+        <v>-24.11000000000001</v>
       </c>
       <c r="F205" t="n">
-        <v>-1.170000000000016</v>
+        <v>-15.69999999999999</v>
       </c>
     </row>
     <row r="206">
@@ -4540,16 +4540,16 @@
         <v>1</v>
       </c>
       <c r="C206" t="n">
-        <v>11.97000000000003</v>
+        <v>35.69999999999999</v>
       </c>
       <c r="D206" t="n">
-        <v>15.98000000000002</v>
+        <v>23.62</v>
       </c>
       <c r="E206" t="n">
-        <v>-4.82000000000005</v>
+        <v>9.490000000000009</v>
       </c>
       <c r="F206" t="n">
-        <v>-33.27000000000004</v>
+        <v>-17.92000000000002</v>
       </c>
     </row>
     <row r="207">
@@ -4560,16 +4560,16 @@
         <v>2</v>
       </c>
       <c r="C207" t="n">
-        <v>-12.83999999999997</v>
+        <v>2.149999999999977</v>
       </c>
       <c r="D207" t="n">
-        <v>-12.65999999999997</v>
+        <v>-0.6499999999999773</v>
       </c>
       <c r="E207" t="n">
-        <v>-27.56</v>
+        <v>-12.41000000000003</v>
       </c>
       <c r="F207" t="n">
-        <v>-24.66000000000003</v>
+        <v>-13.64999999999998</v>
       </c>
     </row>
     <row r="208">
@@ -4580,16 +4580,16 @@
         <v>3</v>
       </c>
       <c r="C208" t="n">
-        <v>22.05000000000001</v>
+        <v>7.75</v>
       </c>
       <c r="D208" t="n">
-        <v>0.6300000000000523</v>
+        <v>-15.28999999999996</v>
       </c>
       <c r="E208" t="n">
-        <v>-29.70000000000005</v>
+        <v>-34.50999999999999</v>
       </c>
       <c r="F208" t="n">
-        <v>-24.05000000000001</v>
+        <v>-44.19999999999999</v>
       </c>
     </row>
     <row r="209">
@@ -4600,16 +4600,16 @@
         <v>4</v>
       </c>
       <c r="C209" t="n">
-        <v>-6.870000000000005</v>
+        <v>-20.85000000000002</v>
       </c>
       <c r="D209" t="n">
-        <v>-2.689999999999998</v>
+        <v>-24.51999999999998</v>
       </c>
       <c r="E209" t="n">
-        <v>-29.89000000000004</v>
+        <v>-28.25</v>
       </c>
       <c r="F209" t="n">
-        <v>-27.05000000000001</v>
+        <v>-43.16000000000003</v>
       </c>
     </row>
     <row r="210">
@@ -4620,16 +4620,16 @@
         <v>5</v>
       </c>
       <c r="C210" t="n">
-        <v>-5.319999999999993</v>
+        <v>1.279999999999973</v>
       </c>
       <c r="D210" t="n">
-        <v>-10.22999999999996</v>
+        <v>-8.279999999999973</v>
       </c>
       <c r="E210" t="n">
-        <v>-33.22000000000003</v>
+        <v>-16.31</v>
       </c>
       <c r="F210" t="n">
-        <v>-44.74000000000001</v>
+        <v>-27.99000000000001</v>
       </c>
     </row>
     <row r="211">
@@ -4640,16 +4640,2116 @@
         <v>6</v>
       </c>
       <c r="C211" t="n">
+        <v>-2.560000000000002</v>
+      </c>
+      <c r="D211" t="n">
+        <v>-8.96999999999997</v>
+      </c>
+      <c r="E211" t="n">
+        <v>-17.24000000000001</v>
+      </c>
+      <c r="F211" t="n">
+        <v>-25.39999999999998</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0</v>
+      </c>
+      <c r="C212" t="n">
+        <v>-22.40000000000003</v>
+      </c>
+      <c r="D212" t="n">
+        <v>-15.31</v>
+      </c>
+      <c r="E212" t="n">
+        <v>-30.56</v>
+      </c>
+      <c r="F212" t="n">
+        <v>-4.620000000000005</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1</v>
+      </c>
+      <c r="C213" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="D213" t="n">
+        <v>6.189999999999998</v>
+      </c>
+      <c r="E213" t="n">
+        <v>18.85000000000002</v>
+      </c>
+      <c r="F213" t="n">
+        <v>-5.449999999999989</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>2</v>
+      </c>
+      <c r="C214" t="n">
+        <v>-36.21000000000004</v>
+      </c>
+      <c r="D214" t="n">
+        <v>-31.62</v>
+      </c>
+      <c r="E214" t="n">
+        <v>-30.97999999999996</v>
+      </c>
+      <c r="F214" t="n">
+        <v>-33.65000000000003</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>3</v>
+      </c>
+      <c r="C215" t="n">
+        <v>17.81</v>
+      </c>
+      <c r="D215" t="n">
+        <v>3.689999999999998</v>
+      </c>
+      <c r="E215" t="n">
+        <v>-15.18000000000001</v>
+      </c>
+      <c r="F215" t="n">
+        <v>-24.03000000000003</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>4</v>
+      </c>
+      <c r="C216" t="n">
+        <v>7.819999999999993</v>
+      </c>
+      <c r="D216" t="n">
+        <v>13.64000000000004</v>
+      </c>
+      <c r="E216" t="n">
+        <v>-3.519999999999982</v>
+      </c>
+      <c r="F216" t="n">
+        <v>-8.189999999999998</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5</v>
+      </c>
+      <c r="C217" t="n">
+        <v>-14.56999999999999</v>
+      </c>
+      <c r="D217" t="n">
+        <v>-12.94</v>
+      </c>
+      <c r="E217" t="n">
+        <v>-23.64999999999998</v>
+      </c>
+      <c r="F217" t="n">
+        <v>-30.94</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>6</v>
+      </c>
+      <c r="C218" t="n">
+        <v>-19.02000000000004</v>
+      </c>
+      <c r="D218" t="n">
+        <v>-13.38999999999999</v>
+      </c>
+      <c r="E218" t="n">
+        <v>-24.07999999999998</v>
+      </c>
+      <c r="F218" t="n">
+        <v>-33.04000000000002</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0</v>
+      </c>
+      <c r="C219" t="n">
+        <v>3.110000000000014</v>
+      </c>
+      <c r="D219" t="n">
+        <v>14.36000000000001</v>
+      </c>
+      <c r="E219" t="n">
+        <v>-11.76999999999998</v>
+      </c>
+      <c r="F219" t="n">
+        <v>5.70999999999998</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+      <c r="C220" t="n">
+        <v>32.51999999999998</v>
+      </c>
+      <c r="D220" t="n">
+        <v>24.24000000000001</v>
+      </c>
+      <c r="E220" t="n">
+        <v>17.02000000000004</v>
+      </c>
+      <c r="F220" t="n">
+        <v>-4.269999999999982</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>2</v>
+      </c>
+      <c r="C221" t="n">
+        <v>-7.680000000000007</v>
+      </c>
+      <c r="D221" t="n">
+        <v>-5.069999999999993</v>
+      </c>
+      <c r="E221" t="n">
+        <v>-10.91999999999996</v>
+      </c>
+      <c r="F221" t="n">
+        <v>-9.28000000000003</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>3</v>
+      </c>
+      <c r="C222" t="n">
+        <v>9.079999999999984</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.8700000000000045</v>
+      </c>
+      <c r="E222" t="n">
+        <v>-21.41999999999996</v>
+      </c>
+      <c r="F222" t="n">
+        <v>-26.56999999999999</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>4</v>
+      </c>
+      <c r="C223" t="n">
+        <v>-14.06</v>
+      </c>
+      <c r="D223" t="n">
+        <v>-9.430000000000007</v>
+      </c>
+      <c r="E223" t="n">
+        <v>-18.85999999999996</v>
+      </c>
+      <c r="F223" t="n">
+        <v>-21.47000000000003</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>5</v>
+      </c>
+      <c r="C224" t="n">
+        <v>-15.29000000000002</v>
+      </c>
+      <c r="D224" t="n">
+        <v>-16.45999999999998</v>
+      </c>
+      <c r="E224" t="n">
+        <v>-28.57999999999998</v>
+      </c>
+      <c r="F224" t="n">
+        <v>-34.87</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>6</v>
+      </c>
+      <c r="C225" t="n">
+        <v>-27.60000000000002</v>
+      </c>
+      <c r="D225" t="n">
+        <v>-23.94999999999999</v>
+      </c>
+      <c r="E225" t="n">
+        <v>-35.51999999999998</v>
+      </c>
+      <c r="F225" t="n">
+        <v>-40.04000000000002</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.02999999999997272</v>
+      </c>
+      <c r="D226" t="n">
+        <v>9.990000000000009</v>
+      </c>
+      <c r="E226" t="n">
+        <v>-18.22999999999996</v>
+      </c>
+      <c r="F226" t="n">
+        <v>2.269999999999982</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+      <c r="C227" t="n">
+        <v>33.46999999999997</v>
+      </c>
+      <c r="D227" t="n">
+        <v>23.87</v>
+      </c>
+      <c r="E227" t="n">
+        <v>17.61000000000001</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1.839999999999975</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>2</v>
+      </c>
+      <c r="C228" t="n">
+        <v>2.029999999999973</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1.960000000000036</v>
+      </c>
+      <c r="E228" t="n">
+        <v>-6.849999999999966</v>
+      </c>
+      <c r="F228" t="n">
+        <v>-1.900000000000034</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>3</v>
+      </c>
+      <c r="C229" t="n">
+        <v>32.25999999999999</v>
+      </c>
+      <c r="D229" t="n">
+        <v>12.99000000000001</v>
+      </c>
+      <c r="E229" t="n">
+        <v>-14.27999999999997</v>
+      </c>
+      <c r="F229" t="n">
+        <v>-18.48000000000002</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>4</v>
+      </c>
+      <c r="C230" t="n">
+        <v>-0.1299999999999955</v>
+      </c>
+      <c r="D230" t="n">
+        <v>-4.069999999999993</v>
+      </c>
+      <c r="E230" t="n">
+        <v>-14.78999999999996</v>
+      </c>
+      <c r="F230" t="n">
+        <v>-18.15000000000003</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>5</v>
+      </c>
+      <c r="C231" t="n">
+        <v>-13.77000000000004</v>
+      </c>
+      <c r="D231" t="n">
+        <v>-20.54999999999995</v>
+      </c>
+      <c r="E231" t="n">
+        <v>-27.68000000000001</v>
+      </c>
+      <c r="F231" t="n">
+        <v>-41.35000000000002</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>6</v>
+      </c>
+      <c r="C232" t="n">
+        <v>-18.44999999999999</v>
+      </c>
+      <c r="D232" t="n">
+        <v>-20.91999999999996</v>
+      </c>
+      <c r="E232" t="n">
+        <v>-27.37</v>
+      </c>
+      <c r="F232" t="n">
+        <v>-38.61000000000001</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0</v>
+      </c>
+      <c r="C233" t="n">
+        <v>-8.490000000000009</v>
+      </c>
+      <c r="D233" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="E233" t="n">
+        <v>-22.96999999999997</v>
+      </c>
+      <c r="F233" t="n">
+        <v>-8.939999999999998</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
+      <c r="C234" t="n">
+        <v>35.05000000000001</v>
+      </c>
+      <c r="D234" t="n">
+        <v>30.64000000000004</v>
+      </c>
+      <c r="E234" t="n">
+        <v>23.31999999999999</v>
+      </c>
+      <c r="F234" t="n">
+        <v>-4.129999999999995</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>2</v>
+      </c>
+      <c r="C235" t="n">
+        <v>-3.100000000000023</v>
+      </c>
+      <c r="D235" t="n">
+        <v>-1.239999999999952</v>
+      </c>
+      <c r="E235" t="n">
+        <v>-8.299999999999955</v>
+      </c>
+      <c r="F235" t="n">
+        <v>-9.560000000000002</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>3</v>
+      </c>
+      <c r="C236" t="n">
+        <v>34.77999999999997</v>
+      </c>
+      <c r="D236" t="n">
+        <v>13.64000000000004</v>
+      </c>
+      <c r="E236" t="n">
+        <v>-14.08999999999997</v>
+      </c>
+      <c r="F236" t="n">
+        <v>-23.00999999999999</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>4</v>
+      </c>
+      <c r="C237" t="n">
+        <v>-3.699999999999989</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.8700000000000045</v>
+      </c>
+      <c r="E237" t="n">
+        <v>-14.34999999999997</v>
+      </c>
+      <c r="F237" t="n">
+        <v>-22.05000000000001</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>5</v>
+      </c>
+      <c r="C238" t="n">
+        <v>-11.94999999999999</v>
+      </c>
+      <c r="D238" t="n">
+        <v>-15.25</v>
+      </c>
+      <c r="E238" t="n">
+        <v>-25.43000000000001</v>
+      </c>
+      <c r="F238" t="n">
+        <v>-40.69999999999999</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>6</v>
+      </c>
+      <c r="C239" t="n">
+        <v>-17.94999999999999</v>
+      </c>
+      <c r="D239" t="n">
+        <v>-17.65999999999997</v>
+      </c>
+      <c r="E239" t="n">
+        <v>-24.63</v>
+      </c>
+      <c r="F239" t="n">
+        <v>-39.38999999999999</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0</v>
+      </c>
+      <c r="C240" t="n">
+        <v>-14.93000000000001</v>
+      </c>
+      <c r="D240" t="n">
+        <v>-1.849999999999966</v>
+      </c>
+      <c r="E240" t="n">
+        <v>-29.29999999999995</v>
+      </c>
+      <c r="F240" t="n">
+        <v>-19.32999999999998</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1</v>
+      </c>
+      <c r="C241" t="n">
+        <v>21.12</v>
+      </c>
+      <c r="D241" t="n">
+        <v>20.95000000000005</v>
+      </c>
+      <c r="E241" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="F241" t="n">
+        <v>-23.78000000000003</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>2</v>
+      </c>
+      <c r="C242" t="n">
+        <v>-6.629999999999995</v>
+      </c>
+      <c r="D242" t="n">
+        <v>-6.339999999999975</v>
+      </c>
+      <c r="E242" t="n">
+        <v>-11.18000000000001</v>
+      </c>
+      <c r="F242" t="n">
+        <v>-16.63999999999999</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>3</v>
+      </c>
+      <c r="C243" t="n">
+        <v>46.41999999999996</v>
+      </c>
+      <c r="D243" t="n">
+        <v>12.49000000000001</v>
+      </c>
+      <c r="E243" t="n">
+        <v>-16.76999999999998</v>
+      </c>
+      <c r="F243" t="n">
+        <v>-25.62</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>4</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.7199999999999704</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E244" t="n">
+        <v>-18.28999999999996</v>
+      </c>
+      <c r="F244" t="n">
+        <v>-20.81999999999999</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>5</v>
+      </c>
+      <c r="C245" t="n">
+        <v>-4.980000000000018</v>
+      </c>
+      <c r="D245" t="n">
+        <v>-15.12</v>
+      </c>
+      <c r="E245" t="n">
+        <v>-22.71999999999997</v>
+      </c>
+      <c r="F245" t="n">
+        <v>-42.06</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>6</v>
+      </c>
+      <c r="C246" t="n">
+        <v>-14.79000000000002</v>
+      </c>
+      <c r="D246" t="n">
+        <v>-18.41999999999996</v>
+      </c>
+      <c r="E246" t="n">
+        <v>-25.78999999999996</v>
+      </c>
+      <c r="F246" t="n">
+        <v>-38.13</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0</v>
+      </c>
+      <c r="C247" t="n">
+        <v>3.189999999999998</v>
+      </c>
+      <c r="D247" t="n">
+        <v>15.01000000000005</v>
+      </c>
+      <c r="E247" t="n">
+        <v>-18.72999999999996</v>
+      </c>
+      <c r="F247" t="n">
+        <v>-11.11000000000001</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>1</v>
+      </c>
+      <c r="C248" t="n">
+        <v>33.81999999999999</v>
+      </c>
+      <c r="D248" t="n">
+        <v>29.64000000000004</v>
+      </c>
+      <c r="E248" t="n">
+        <v>19.59000000000003</v>
+      </c>
+      <c r="F248" t="n">
+        <v>-9.889999999999986</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>2</v>
+      </c>
+      <c r="C249" t="n">
+        <v>-4.759999999999991</v>
+      </c>
+      <c r="D249" t="n">
+        <v>-2.259999999999991</v>
+      </c>
+      <c r="E249" t="n">
+        <v>-10.00999999999999</v>
+      </c>
+      <c r="F249" t="n">
+        <v>-14.25999999999999</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>3</v>
+      </c>
+      <c r="C250" t="n">
+        <v>10.59999999999997</v>
+      </c>
+      <c r="D250" t="n">
+        <v>-6.399999999999977</v>
+      </c>
+      <c r="E250" t="n">
+        <v>-31.98999999999995</v>
+      </c>
+      <c r="F250" t="n">
+        <v>-41.57999999999998</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>4</v>
+      </c>
+      <c r="C251" t="n">
+        <v>-1.580000000000041</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.3199999999999932</v>
+      </c>
+      <c r="E251" t="n">
+        <v>-17.01999999999998</v>
+      </c>
+      <c r="F251" t="n">
+        <v>-21.47000000000003</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>5</v>
+      </c>
+      <c r="C252" t="n">
+        <v>-4.379999999999995</v>
+      </c>
+      <c r="D252" t="n">
+        <v>-16.83999999999997</v>
+      </c>
+      <c r="E252" t="n">
+        <v>-23.58999999999997</v>
+      </c>
+      <c r="F252" t="n">
+        <v>-43.11000000000001</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>6</v>
+      </c>
+      <c r="C253" t="n">
+        <v>-17.66000000000003</v>
+      </c>
+      <c r="D253" t="n">
+        <v>-19.85999999999996</v>
+      </c>
+      <c r="E253" t="n">
+        <v>-27.19</v>
+      </c>
+      <c r="F253" t="n">
+        <v>-42.11000000000001</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1.800000000000011</v>
+      </c>
+      <c r="D254" t="n">
+        <v>16.10000000000002</v>
+      </c>
+      <c r="E254" t="n">
+        <v>-19.79999999999995</v>
+      </c>
+      <c r="F254" t="n">
+        <v>-8.470000000000027</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>1</v>
+      </c>
+      <c r="C255" t="n">
+        <v>24.30000000000001</v>
+      </c>
+      <c r="D255" t="n">
+        <v>19.47000000000003</v>
+      </c>
+      <c r="E255" t="n">
+        <v>9.670000000000016</v>
+      </c>
+      <c r="F255" t="n">
+        <v>-11.44999999999999</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>2</v>
+      </c>
+      <c r="C256" t="n">
+        <v>-12.61000000000001</v>
+      </c>
+      <c r="D256" t="n">
+        <v>-9.239999999999952</v>
+      </c>
+      <c r="E256" t="n">
+        <v>-17.58999999999997</v>
+      </c>
+      <c r="F256" t="n">
+        <v>-20.81999999999999</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>3</v>
+      </c>
+      <c r="C257" t="n">
+        <v>2.729999999999961</v>
+      </c>
+      <c r="D257" t="n">
+        <v>-9.689999999999998</v>
+      </c>
+      <c r="E257" t="n">
+        <v>-31.38999999999999</v>
+      </c>
+      <c r="F257" t="n">
+        <v>-41.23000000000002</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>4</v>
+      </c>
+      <c r="C258" t="n">
+        <v>-4.379999999999995</v>
+      </c>
+      <c r="D258" t="n">
+        <v>2.310000000000002</v>
+      </c>
+      <c r="E258" t="n">
+        <v>-17.77999999999997</v>
+      </c>
+      <c r="F258" t="n">
+        <v>-25.87</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>5</v>
+      </c>
+      <c r="C259" t="n">
+        <v>-4.980000000000018</v>
+      </c>
+      <c r="D259" t="n">
+        <v>-12.22999999999996</v>
+      </c>
+      <c r="E259" t="n">
+        <v>-25.48999999999995</v>
+      </c>
+      <c r="F259" t="n">
+        <v>-43.63999999999999</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>6</v>
+      </c>
+      <c r="C260" t="n">
+        <v>-5.28000000000003</v>
+      </c>
+      <c r="D260" t="n">
+        <v>-0.08999999999997499</v>
+      </c>
+      <c r="E260" t="n">
+        <v>-12.73999999999995</v>
+      </c>
+      <c r="F260" t="n">
+        <v>-32.61000000000001</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0</v>
+      </c>
+      <c r="C261" t="n">
+        <v>20.53999999999996</v>
+      </c>
+      <c r="D261" t="n">
+        <v>54.64000000000004</v>
+      </c>
+      <c r="E261" t="n">
+        <v>-6.649999999999977</v>
+      </c>
+      <c r="F261" t="n">
+        <v>25.09999999999997</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>1</v>
+      </c>
+      <c r="C262" t="n">
+        <v>47.88999999999999</v>
+      </c>
+      <c r="D262" t="n">
+        <v>49.27000000000004</v>
+      </c>
+      <c r="E262" t="n">
+        <v>33.56999999999999</v>
+      </c>
+      <c r="F262" t="n">
+        <v>2.480000000000018</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>2</v>
+      </c>
+      <c r="C263" t="n">
+        <v>9.71999999999997</v>
+      </c>
+      <c r="D263" t="n">
+        <v>16.83000000000004</v>
+      </c>
+      <c r="E263" t="n">
+        <v>21.06999999999999</v>
+      </c>
+      <c r="F263" t="n">
+        <v>-3.370000000000005</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>3</v>
+      </c>
+      <c r="C264" t="n">
+        <v>52.61000000000001</v>
+      </c>
+      <c r="D264" t="n">
+        <v>29.87</v>
+      </c>
+      <c r="E264" t="n">
+        <v>-7.96999999999997</v>
+      </c>
+      <c r="F264" t="n">
+        <v>-16.97000000000003</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>4</v>
+      </c>
+      <c r="C265" t="n">
+        <v>17.06999999999999</v>
+      </c>
+      <c r="D265" t="n">
+        <v>21.18000000000001</v>
+      </c>
+      <c r="E265" t="n">
+        <v>-4.659999999999968</v>
+      </c>
+      <c r="F265" t="n">
+        <v>-14.32999999999998</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>5</v>
+      </c>
+      <c r="C266" t="n">
+        <v>7.899999999999977</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0.4600000000000364</v>
+      </c>
+      <c r="E266" t="n">
+        <v>-10.52999999999997</v>
+      </c>
+      <c r="F266" t="n">
+        <v>-32.12</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>6</v>
+      </c>
+      <c r="C267" t="n">
+        <v>-1.199999999999989</v>
+      </c>
+      <c r="D267" t="n">
+        <v>-7.129999999999995</v>
+      </c>
+      <c r="E267" t="n">
+        <v>-17.58999999999997</v>
+      </c>
+      <c r="F267" t="n">
+        <v>-44.17000000000002</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0</v>
+      </c>
+      <c r="C268" t="n">
+        <v>5.449999999999989</v>
+      </c>
+      <c r="D268" t="n">
+        <v>31.95000000000005</v>
+      </c>
+      <c r="E268" t="n">
+        <v>-16.38999999999999</v>
+      </c>
+      <c r="F268" t="n">
+        <v>-0.8500000000000227</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>1</v>
+      </c>
+      <c r="C269" t="n">
+        <v>32</v>
+      </c>
+      <c r="D269" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="E269" t="n">
+        <v>17.90000000000003</v>
+      </c>
+      <c r="F269" t="n">
+        <v>3.550000000000011</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>2</v>
+      </c>
+      <c r="C270" t="n">
+        <v>2.180000000000007</v>
+      </c>
+      <c r="D270" t="n">
+        <v>8.510000000000048</v>
+      </c>
+      <c r="E270" t="n">
+        <v>-4.71999999999997</v>
+      </c>
+      <c r="F270" t="n">
+        <v>-11.51999999999998</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>3</v>
+      </c>
+      <c r="C271" t="n">
+        <v>33.90999999999997</v>
+      </c>
+      <c r="D271" t="n">
+        <v>14.80000000000001</v>
+      </c>
+      <c r="E271" t="n">
+        <v>-9.810000000000002</v>
+      </c>
+      <c r="F271" t="n">
+        <v>-21.98000000000002</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>4</v>
+      </c>
+      <c r="C272" t="n">
+        <v>8.610000000000014</v>
+      </c>
+      <c r="D272" t="n">
+        <v>9.990000000000009</v>
+      </c>
+      <c r="E272" t="n">
+        <v>-5.589999999999975</v>
+      </c>
+      <c r="F272" t="n">
+        <v>-19.91000000000003</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>5</v>
+      </c>
+      <c r="C273" t="n">
+        <v>6.159999999999968</v>
+      </c>
+      <c r="D273" t="n">
+        <v>-7.129999999999995</v>
+      </c>
+      <c r="E273" t="n">
+        <v>-12.15999999999997</v>
+      </c>
+      <c r="F273" t="n">
+        <v>-37.41000000000003</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>6</v>
+      </c>
+      <c r="C274" t="n">
+        <v>-4.680000000000007</v>
+      </c>
+      <c r="D274" t="n">
+        <v>-8.509999999999991</v>
+      </c>
+      <c r="E274" t="n">
+        <v>-13.44999999999999</v>
+      </c>
+      <c r="F274" t="n">
+        <v>-35.24000000000001</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0</v>
+      </c>
+      <c r="C275" t="n">
+        <v>-3.319999999999993</v>
+      </c>
+      <c r="D275" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="E275" t="n">
+        <v>-21.41999999999996</v>
+      </c>
+      <c r="F275" t="n">
+        <v>-10.5</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>1</v>
+      </c>
+      <c r="C276" t="n">
+        <v>19.78999999999996</v>
+      </c>
+      <c r="D276" t="n">
+        <v>23.79000000000002</v>
+      </c>
+      <c r="E276" t="n">
+        <v>11.52000000000004</v>
+      </c>
+      <c r="F276" t="n">
+        <v>-25.37</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>2</v>
+      </c>
+      <c r="C277" t="n">
+        <v>-24.84000000000003</v>
+      </c>
+      <c r="D277" t="n">
+        <v>-16.83999999999997</v>
+      </c>
+      <c r="E277" t="n">
+        <v>-25.18000000000001</v>
+      </c>
+      <c r="F277" t="n">
+        <v>-30.25999999999999</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>3</v>
+      </c>
+      <c r="C278" t="n">
+        <v>-12.97000000000003</v>
+      </c>
+      <c r="D278" t="n">
+        <v>-16.07999999999998</v>
+      </c>
+      <c r="E278" t="n">
+        <v>-35.87</v>
+      </c>
+      <c r="F278" t="n">
+        <v>-50.72000000000003</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>4</v>
+      </c>
+      <c r="C279" t="n">
+        <v>-28.75999999999999</v>
+      </c>
+      <c r="D279" t="n">
+        <v>-20.97999999999996</v>
+      </c>
+      <c r="E279" t="n">
+        <v>-34.75999999999999</v>
+      </c>
+      <c r="F279" t="n">
+        <v>-50.66000000000003</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>5</v>
+      </c>
+      <c r="C280" t="n">
+        <v>-33.62</v>
+      </c>
+      <c r="D280" t="n">
+        <v>-39.83999999999997</v>
+      </c>
+      <c r="E280" t="n">
+        <v>-41.84999999999997</v>
+      </c>
+      <c r="F280" t="n">
+        <v>-68.43000000000001</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>6</v>
+      </c>
+      <c r="C281" t="n">
+        <v>-42.60000000000002</v>
+      </c>
+      <c r="D281" t="n">
+        <v>-42.62</v>
+      </c>
+      <c r="E281" t="n">
+        <v>5.310000000000002</v>
+      </c>
+      <c r="F281" t="n">
+        <v>-66.86000000000001</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0</v>
+      </c>
+      <c r="C282" t="n">
+        <v>-17.52000000000004</v>
+      </c>
+      <c r="D282" t="n">
+        <v>13.35000000000002</v>
+      </c>
+      <c r="E282" t="n">
+        <v>-27.60999999999996</v>
+      </c>
+      <c r="F282" t="n">
+        <v>-10.37</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>1</v>
+      </c>
+      <c r="C283" t="n">
+        <v>-4.230000000000018</v>
+      </c>
+      <c r="D283" t="n">
+        <v>4.240000000000009</v>
+      </c>
+      <c r="E283" t="n">
+        <v>-6.25</v>
+      </c>
+      <c r="F283" t="n">
+        <v>-32.42000000000002</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>2</v>
+      </c>
+      <c r="C284" t="n">
+        <v>-29.31</v>
+      </c>
+      <c r="D284" t="n">
+        <v>-22.71999999999997</v>
+      </c>
+      <c r="E284" t="n">
+        <v>-26.21999999999997</v>
+      </c>
+      <c r="F284" t="n">
+        <v>-28.63999999999999</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>3</v>
+      </c>
+      <c r="C285" t="n">
+        <v>25.74000000000001</v>
+      </c>
+      <c r="D285" t="n">
+        <v>-5.269999999999982</v>
+      </c>
+      <c r="E285" t="n">
+        <v>-24.31999999999999</v>
+      </c>
+      <c r="F285" t="n">
+        <v>-41.29000000000002</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>4</v>
+      </c>
+      <c r="C286" t="n">
+        <v>-0.7400000000000091</v>
+      </c>
+      <c r="D286" t="n">
+        <v>-5.669999999999959</v>
+      </c>
+      <c r="E286" t="n">
+        <v>-17.65999999999997</v>
+      </c>
+      <c r="F286" t="n">
+        <v>-29.57999999999998</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>5</v>
+      </c>
+      <c r="C287" t="n">
+        <v>-3.78000000000003</v>
+      </c>
+      <c r="D287" t="n">
+        <v>-18.47999999999996</v>
+      </c>
+      <c r="E287" t="n">
+        <v>-23.27999999999997</v>
+      </c>
+      <c r="F287" t="n">
+        <v>-48.61000000000001</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>6</v>
+      </c>
+      <c r="C288" t="n">
+        <v>-15.29000000000002</v>
+      </c>
+      <c r="D288" t="n">
+        <v>-20.66999999999996</v>
+      </c>
+      <c r="E288" t="n">
+        <v>-24.75</v>
+      </c>
+      <c r="F288" t="n">
+        <v>-45.44999999999999</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0</v>
+      </c>
+      <c r="C289" t="n">
+        <v>-6.860000000000014</v>
+      </c>
+      <c r="D289" t="n">
+        <v>32.65000000000003</v>
+      </c>
+      <c r="E289" t="n">
+        <v>-20.79999999999995</v>
+      </c>
+      <c r="F289" t="n">
+        <v>9.939999999999998</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>1</v>
+      </c>
+      <c r="C290" t="n">
+        <v>-1.730000000000018</v>
+      </c>
+      <c r="D290" t="n">
+        <v>-3.060000000000002</v>
+      </c>
+      <c r="E290" t="n">
+        <v>-8.699999999999989</v>
+      </c>
+      <c r="F290" t="n">
+        <v>-34.56999999999999</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>2</v>
+      </c>
+      <c r="C291" t="n">
+        <v>-17.66000000000003</v>
+      </c>
+      <c r="D291" t="n">
+        <v>-14.98999999999995</v>
+      </c>
+      <c r="E291" t="n">
+        <v>-21.16999999999996</v>
+      </c>
+      <c r="F291" t="n">
+        <v>-27.00999999999999</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>3</v>
+      </c>
+      <c r="C292" t="n">
+        <v>8.689999999999998</v>
+      </c>
+      <c r="D292" t="n">
+        <v>-0.3599999999999568</v>
+      </c>
+      <c r="E292" t="n">
+        <v>-27.19</v>
+      </c>
+      <c r="F292" t="n">
+        <v>-39.75</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>4</v>
+      </c>
+      <c r="C293" t="n">
+        <v>-8.050000000000011</v>
+      </c>
+      <c r="D293" t="n">
+        <v>-2.259999999999991</v>
+      </c>
+      <c r="E293" t="n">
+        <v>-17.52999999999997</v>
+      </c>
+      <c r="F293" t="n">
+        <v>-32.24000000000001</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>5</v>
+      </c>
+      <c r="C294" t="n">
         <v>-15.22000000000003</v>
       </c>
-      <c r="D211" t="n">
-        <v>-14.13999999999999</v>
-      </c>
-      <c r="E211" t="n">
-        <v>-31.17000000000002</v>
-      </c>
-      <c r="F211" t="n">
-        <v>-51.25</v>
+      <c r="D294" t="n">
+        <v>-20.16999999999996</v>
+      </c>
+      <c r="E294" t="n">
+        <v>-23.08999999999997</v>
+      </c>
+      <c r="F294" t="n">
+        <v>-47.41000000000003</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>6</v>
+      </c>
+      <c r="C295" t="n">
+        <v>-19.65000000000003</v>
+      </c>
+      <c r="D295" t="n">
+        <v>-16.83999999999997</v>
+      </c>
+      <c r="E295" t="n">
+        <v>-23.70999999999998</v>
+      </c>
+      <c r="F295" t="n">
+        <v>-47.93000000000001</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0</v>
+      </c>
+      <c r="C296" t="n">
+        <v>-1.430000000000007</v>
+      </c>
+      <c r="D296" t="n">
+        <v>36.18000000000001</v>
+      </c>
+      <c r="E296" t="n">
+        <v>-12.02999999999997</v>
+      </c>
+      <c r="F296" t="n">
+        <v>11.26999999999998</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>1</v>
+      </c>
+      <c r="C297" t="n">
+        <v>45.31999999999999</v>
+      </c>
+      <c r="D297" t="n">
+        <v>24.31999999999999</v>
+      </c>
+      <c r="E297" t="n">
+        <v>73.22000000000003</v>
+      </c>
+      <c r="F297" t="n">
+        <v>2.129999999999995</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>2</v>
+      </c>
+      <c r="C298" t="n">
+        <v>5.379999999999995</v>
+      </c>
+      <c r="D298" t="n">
+        <v>10.77000000000004</v>
+      </c>
+      <c r="E298" t="n">
+        <v>21.30000000000001</v>
+      </c>
+      <c r="F298" t="n">
+        <v>-26.38</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>3</v>
+      </c>
+      <c r="C299" t="n">
+        <v>39.56</v>
+      </c>
+      <c r="D299" t="n">
+        <v>31.95000000000005</v>
+      </c>
+      <c r="E299" t="n">
+        <v>12.60000000000002</v>
+      </c>
+      <c r="F299" t="n">
+        <v>-28.51999999999998</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>4</v>
+      </c>
+      <c r="C300" t="n">
+        <v>9.009999999999991</v>
+      </c>
+      <c r="D300" t="n">
+        <v>17.20000000000005</v>
+      </c>
+      <c r="E300" t="n">
+        <v>14.11000000000001</v>
+      </c>
+      <c r="F300" t="n">
+        <v>-22.24000000000001</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>5</v>
+      </c>
+      <c r="C301" t="n">
+        <v>2.95999999999998</v>
+      </c>
+      <c r="D301" t="n">
+        <v>3.689999999999998</v>
+      </c>
+      <c r="E301" t="n">
+        <v>2.470000000000027</v>
+      </c>
+      <c r="F301" t="n">
+        <v>-36.99000000000001</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>6</v>
+      </c>
+      <c r="C302" t="n">
+        <v>-9.009999999999991</v>
+      </c>
+      <c r="D302" t="n">
+        <v>-2.319999999999993</v>
+      </c>
+      <c r="E302" t="n">
+        <v>1.510000000000048</v>
+      </c>
+      <c r="F302" t="n">
+        <v>-33.70999999999998</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0</v>
+      </c>
+      <c r="C303" t="n">
+        <v>-22.47000000000003</v>
+      </c>
+      <c r="D303" t="n">
+        <v>20.29000000000002</v>
+      </c>
+      <c r="E303" t="n">
+        <v>-24.01999999999998</v>
+      </c>
+      <c r="F303" t="n">
+        <v>2.699999999999989</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>1</v>
+      </c>
+      <c r="C304" t="n">
+        <v>26.07999999999998</v>
+      </c>
+      <c r="D304" t="n">
+        <v>20.14000000000004</v>
+      </c>
+      <c r="E304" t="n">
+        <v>38.70000000000005</v>
+      </c>
+      <c r="F304" t="n">
+        <v>-11.25</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>2</v>
+      </c>
+      <c r="C305" t="n">
+        <v>-3.699999999999989</v>
+      </c>
+      <c r="D305" t="n">
+        <v>-1.239999999999952</v>
+      </c>
+      <c r="E305" t="n">
+        <v>2.54000000000002</v>
+      </c>
+      <c r="F305" t="n">
+        <v>-29.57999999999998</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>3</v>
+      </c>
+      <c r="C306" t="n">
+        <v>38.05000000000001</v>
+      </c>
+      <c r="D306" t="n">
+        <v>23.72000000000003</v>
+      </c>
+      <c r="E306" t="n">
+        <v>1.78000000000003</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-29.44999999999999</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>4</v>
+      </c>
+      <c r="C307" t="n">
+        <v>1.71999999999997</v>
+      </c>
+      <c r="D307" t="n">
+        <v>7.730000000000018</v>
+      </c>
+      <c r="E307" t="n">
+        <v>0.06999999999999318</v>
+      </c>
+      <c r="F307" t="n">
+        <v>-29.26999999999998</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>5</v>
+      </c>
+      <c r="C308" t="n">
+        <v>-2.410000000000025</v>
+      </c>
+      <c r="D308" t="n">
+        <v>-4.139999999999986</v>
+      </c>
+      <c r="E308" t="n">
+        <v>-2.839999999999975</v>
+      </c>
+      <c r="F308" t="n">
+        <v>-39.75</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>6</v>
+      </c>
+      <c r="C309" t="n">
+        <v>-12.68000000000001</v>
+      </c>
+      <c r="D309" t="n">
+        <v>-9.099999999999966</v>
+      </c>
+      <c r="E309" t="n">
+        <v>-1.21999999999997</v>
+      </c>
+      <c r="F309" t="n">
+        <v>-30.38999999999999</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>0</v>
+      </c>
+      <c r="C310" t="n">
+        <v>-17.02000000000004</v>
+      </c>
+      <c r="D310" t="n">
+        <v>4.379999999999995</v>
+      </c>
+      <c r="E310" t="n">
+        <v>-17.71999999999997</v>
+      </c>
+      <c r="F310" t="n">
+        <v>-4.550000000000011</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>1</v>
+      </c>
+      <c r="C311" t="n">
+        <v>18.38999999999999</v>
+      </c>
+      <c r="D311" t="n">
+        <v>15.45000000000005</v>
+      </c>
+      <c r="E311" t="n">
+        <v>21.89000000000004</v>
+      </c>
+      <c r="F311" t="n">
+        <v>-27.32999999999998</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>2</v>
+      </c>
+      <c r="C312" t="n">
+        <v>-12.25</v>
+      </c>
+      <c r="D312" t="n">
+        <v>-8.96999999999997</v>
+      </c>
+      <c r="E312" t="n">
+        <v>-8.239999999999952</v>
+      </c>
+      <c r="F312" t="n">
+        <v>-45.20999999999998</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>3</v>
+      </c>
+      <c r="C313" t="n">
+        <v>38.49000000000001</v>
+      </c>
+      <c r="D313" t="n">
+        <v>15.45000000000005</v>
+      </c>
+      <c r="E313" t="n">
+        <v>-5.189999999999998</v>
+      </c>
+      <c r="F313" t="n">
+        <v>-36.15000000000003</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>4</v>
+      </c>
+      <c r="C314" t="n">
+        <v>6.079999999999984</v>
+      </c>
+      <c r="D314" t="n">
+        <v>13.21000000000004</v>
+      </c>
+      <c r="E314" t="n">
+        <v>-8.439999999999998</v>
+      </c>
+      <c r="F314" t="n">
+        <v>-28.94999999999999</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>5</v>
+      </c>
+      <c r="C315" t="n">
+        <v>-3.400000000000034</v>
+      </c>
+      <c r="D315" t="n">
+        <v>-7.329999999999984</v>
+      </c>
+      <c r="E315" t="n">
+        <v>-13.44999999999999</v>
+      </c>
+      <c r="F315" t="n">
+        <v>-44.86000000000001</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>6</v>
+      </c>
+      <c r="C316" t="n">
+        <v>-9.090000000000032</v>
+      </c>
+      <c r="D316" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="E316" t="n">
+        <v>-9.489999999999952</v>
+      </c>
+      <c r="F316" t="n">
+        <v>-37.47000000000003</v>
       </c>
     </row>
   </sheetData>
